--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM+Dem.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.03944072200037688</v>
+        <v>-0.2615661649398635</v>
       </c>
       <c r="C2">
-        <v>0.05816621692738557</v>
+        <v>0.7647627045405385</v>
       </c>
       <c r="D2">
-        <v>0.05814873218877272</v>
+        <v>0.6545540801871707</v>
       </c>
       <c r="E2">
-        <v>0.04996533434133554</v>
+        <v>0.284611343811651</v>
       </c>
       <c r="F2">
-        <v>0.03185216532414157</v>
+        <v>0.2734100433764151</v>
       </c>
       <c r="G2">
-        <v>-0.01161107338638374</v>
+        <v>-0.7553526270830637</v>
       </c>
       <c r="H2">
-        <v>-0.01343941767820681</v>
+        <v>-0.2273196904843579</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.3511397067696573</v>
+        <v>-0.2661250482073181</v>
       </c>
       <c r="C3">
-        <v>0.8942829334649364</v>
+        <v>0.7856902125230838</v>
       </c>
       <c r="D3">
-        <v>0.6620866021127908</v>
+        <v>0.8477213375072158</v>
       </c>
       <c r="E3">
-        <v>0.2576445909332165</v>
+        <v>0.04398434352300332</v>
       </c>
       <c r="F3">
-        <v>0.266524708611525</v>
+        <v>0.3975537985696505</v>
       </c>
       <c r="G3">
-        <v>-0.7611864611360452</v>
+        <v>-0.8820630751591619</v>
       </c>
       <c r="H3">
-        <v>-0.134574972322197</v>
+        <v>-0.1962449688161954</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.5302383978947096</v>
+        <v>-0.2792402246578833</v>
       </c>
       <c r="C4">
-        <v>0.8863979910499618</v>
+        <v>0.6428156573101407</v>
       </c>
       <c r="D4">
-        <v>1.102108864858811</v>
+        <v>0.4476084025352228</v>
       </c>
       <c r="E4">
-        <v>0.2571354738174577</v>
+        <v>0.2438962926335529</v>
       </c>
       <c r="F4">
-        <v>0.2228399558844189</v>
+        <v>0.1900311169161095</v>
       </c>
       <c r="G4">
-        <v>-0.6917723475223203</v>
+        <v>-0.3121890608012581</v>
       </c>
       <c r="H4">
-        <v>-0.4714626495319733</v>
+        <v>-0.185891167681184</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.004422353694896635</v>
+        <v>-0.2159353738345184</v>
       </c>
       <c r="C5">
-        <v>0.007636767592257977</v>
+        <v>0.7097681653709845</v>
       </c>
       <c r="D5">
-        <v>0.005517746410520183</v>
+        <v>0.6233085950856233</v>
       </c>
       <c r="E5">
-        <v>0.004813300049093927</v>
+        <v>0.2103642430628599</v>
       </c>
       <c r="F5">
-        <v>0.00409510896673841</v>
+        <v>0.29326932275673</v>
       </c>
       <c r="G5">
-        <v>-0.001219451015816895</v>
+        <v>-0.704834563828185</v>
       </c>
       <c r="H5">
-        <v>-0.00168956404939416</v>
+        <v>-0.2377662376986518</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.2667700607461374</v>
+        <v>-0.228502163490607</v>
       </c>
       <c r="C6">
-        <v>0.6025954636517868</v>
+        <v>0.9077274143256205</v>
       </c>
       <c r="D6">
-        <v>0.4730883700522273</v>
+        <v>0.7145165029292675</v>
       </c>
       <c r="E6">
-        <v>0.2329533082077454</v>
+        <v>0.1633478070002564</v>
       </c>
       <c r="F6">
-        <v>0.1968943321737777</v>
+        <v>0.05503062037641385</v>
       </c>
       <c r="G6">
-        <v>-0.288418863701625</v>
+        <v>-0.8260170200955822</v>
       </c>
       <c r="H6">
-        <v>-0.1852011927331476</v>
+        <v>-0.2315941125048565</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.2726410634277738</v>
+        <v>-0.1834134451199309</v>
       </c>
       <c r="C7">
-        <v>0.9523241717654407</v>
+        <v>0.2863113054870959</v>
       </c>
       <c r="D7">
-        <v>0.5639037616634209</v>
+        <v>0.2949205772820949</v>
       </c>
       <c r="E7">
-        <v>0.3327843453031121</v>
+        <v>0.2204762884105685</v>
       </c>
       <c r="F7">
-        <v>0.1007828664951289</v>
+        <v>0.1214399947475087</v>
       </c>
       <c r="G7">
-        <v>-0.8186602076537578</v>
+        <v>-0.09353284463495917</v>
       </c>
       <c r="H7">
-        <v>-0.2374170876964661</v>
+        <v>-0.1031063835672729</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.1893716623666886</v>
+        <v>-0.375786000179474</v>
       </c>
       <c r="C8">
-        <v>0.7609943014828637</v>
+        <v>0.8184771946390893</v>
       </c>
       <c r="D8">
-        <v>0.6758832092265877</v>
+        <v>0.8913192634321551</v>
       </c>
       <c r="E8">
-        <v>0.192678502087711</v>
+        <v>0.2760947830470588</v>
       </c>
       <c r="F8">
-        <v>0.1319360277138163</v>
+        <v>0.3050272622825083</v>
       </c>
       <c r="G8">
-        <v>-0.748043457904231</v>
+        <v>-0.8188228867573574</v>
       </c>
       <c r="H8">
-        <v>-0.1930691441414368</v>
+        <v>-0.3493759187692995</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.3230515206609826</v>
+        <v>-0.5303888013076471</v>
       </c>
       <c r="C9">
-        <v>0.7921526358668489</v>
+        <v>1.154950565721165</v>
       </c>
       <c r="D9">
-        <v>0.6373324709933662</v>
+        <v>0.8454857257110312</v>
       </c>
       <c r="E9">
-        <v>0.2561996696704751</v>
+        <v>0.2967556231702149</v>
       </c>
       <c r="F9">
-        <v>0.08962220678342384</v>
+        <v>0.4227519763947106</v>
       </c>
       <c r="G9">
-        <v>-0.4383879023674598</v>
+        <v>-1.005528217684292</v>
       </c>
       <c r="H9">
-        <v>-0.2041137319418532</v>
+        <v>-0.1568165851705396</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.3759629396511989</v>
+        <v>-0.3995683523643085</v>
       </c>
       <c r="C10">
-        <v>1.274704598084268</v>
+        <v>0.781218772567822</v>
       </c>
       <c r="D10">
-        <v>0.5980787357261913</v>
+        <v>0.5838499535356411</v>
       </c>
       <c r="E10">
-        <v>0.1605393839432735</v>
+        <v>0.2806396706495641</v>
       </c>
       <c r="F10">
-        <v>0.1530097705080403</v>
+        <v>0.1665448821482058</v>
       </c>
       <c r="G10">
-        <v>-0.9694904530153192</v>
+        <v>-0.3686289094227816</v>
       </c>
       <c r="H10">
-        <v>-0.1281725254063193</v>
+        <v>-0.350753557787469</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.004248085068001851</v>
+        <v>-0.323860957582952</v>
       </c>
       <c r="C11">
-        <v>0.00734547784271924</v>
+        <v>1.01444859405769</v>
       </c>
       <c r="D11">
-        <v>0.005970098694528914</v>
+        <v>0.5591118583254997</v>
       </c>
       <c r="E11">
-        <v>0.004199831598823285</v>
+        <v>0.2463333401165693</v>
       </c>
       <c r="F11">
-        <v>0.003904952741012508</v>
+        <v>0.1117435987606126</v>
       </c>
       <c r="G11">
-        <v>-0.001223693447612369</v>
+        <v>-0.7020718036128947</v>
       </c>
       <c r="H11">
-        <v>-0.002177177811420028</v>
+        <v>-0.16863105258007</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.259553453701576</v>
+        <v>-0.1691698281327643</v>
       </c>
       <c r="C12">
-        <v>1.032242615840503</v>
+        <v>0.3337326676180226</v>
       </c>
       <c r="D12">
-        <v>0.7984008654383797</v>
+        <v>0.2662128543203627</v>
       </c>
       <c r="E12">
-        <v>0.2536017423387749</v>
+        <v>0.1570987818207114</v>
       </c>
       <c r="F12">
-        <v>-0.07014018296050464</v>
+        <v>0.1372016801568261</v>
       </c>
       <c r="G12">
-        <v>-0.9945620418215012</v>
+        <v>-0.09066821284064283</v>
       </c>
       <c r="H12">
-        <v>-0.3580783995213204</v>
+        <v>-0.1018953650493185</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.4373583279420971</v>
+        <v>-0.2102950791662355</v>
       </c>
       <c r="C13">
-        <v>1.039564841927134</v>
+        <v>0.3250187378380751</v>
       </c>
       <c r="D13">
-        <v>0.6247641235812761</v>
+        <v>0.2897922034700037</v>
       </c>
       <c r="E13">
-        <v>0.3997236468079587</v>
+        <v>0.2366829820965463</v>
       </c>
       <c r="F13">
-        <v>0.3657360899582776</v>
+        <v>0.09383972838346799</v>
       </c>
       <c r="G13">
-        <v>-0.7924908369899745</v>
+        <v>-0.075419105548007</v>
       </c>
       <c r="H13">
-        <v>-0.2197377598347309</v>
+        <v>-0.09039971711967014</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.3293713869137356</v>
+        <v>-0.005471268544832121</v>
       </c>
       <c r="C14">
-        <v>0.7943808822742365</v>
+        <v>0.007599567621082837</v>
       </c>
       <c r="D14">
-        <v>0.908851026293408</v>
+        <v>0.007237107823263554</v>
       </c>
       <c r="E14">
-        <v>0.1893077998421375</v>
+        <v>0.005208684471632394</v>
       </c>
       <c r="F14">
-        <v>0.2591257452132179</v>
+        <v>0.004834955415365269</v>
       </c>
       <c r="G14">
-        <v>-0.8546024717412621</v>
+        <v>-0.001216326166104888</v>
       </c>
       <c r="H14">
-        <v>-0.5111710054087806</v>
+        <v>-0.000498240047431169</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.004184685322600562</v>
+        <v>-0.00462769874954659</v>
       </c>
       <c r="C15">
-        <v>0.006419223651374756</v>
+        <v>0.007351943532941611</v>
       </c>
       <c r="D15">
-        <v>0.006817393845103781</v>
+        <v>0.006503540567020395</v>
       </c>
       <c r="E15">
-        <v>0.004705944184287586</v>
+        <v>0.004940893812846707</v>
       </c>
       <c r="F15">
-        <v>0.003889778450436588</v>
+        <v>0.004072827000417536</v>
       </c>
       <c r="G15">
-        <v>-0.001217032898742989</v>
+        <v>-0.001219425528660961</v>
       </c>
       <c r="H15">
-        <v>-0.0003688290802893668</v>
+        <v>-0.0004197173606645419</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.240388110767291</v>
+        <v>-0.3697189489949996</v>
       </c>
       <c r="C16">
-        <v>0.9217104932470189</v>
+        <v>0.6279751864450149</v>
       </c>
       <c r="D16">
-        <v>0.5029231412231266</v>
+        <v>0.5306634286682631</v>
       </c>
       <c r="E16">
-        <v>0.3150907355663875</v>
+        <v>0.3095432317806442</v>
       </c>
       <c r="F16">
-        <v>0.06518785480122145</v>
+        <v>0.3397714037756255</v>
       </c>
       <c r="G16">
-        <v>-0.7168534171958673</v>
+        <v>-0.333013464278487</v>
       </c>
       <c r="H16">
-        <v>-0.1311169494048213</v>
+        <v>-0.008726034339904166</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.2481444995880947</v>
+        <v>-0.2729245860000773</v>
       </c>
       <c r="C17">
-        <v>0.6611252268490777</v>
+        <v>0.8585040117412496</v>
       </c>
       <c r="D17">
-        <v>0.5943344307728048</v>
+        <v>0.6264261892504865</v>
       </c>
       <c r="E17">
-        <v>0.1336523055007755</v>
+        <v>0.2929567413757758</v>
       </c>
       <c r="F17">
-        <v>0.1172350473819068</v>
+        <v>0.124434460554695</v>
       </c>
       <c r="G17">
-        <v>-0.4420584604853944</v>
+        <v>-0.7451973889243811</v>
       </c>
       <c r="H17">
-        <v>-0.2624671812885112</v>
+        <v>-0.4637822790401602</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.2053850541069117</v>
+        <v>-0.3031391291107137</v>
       </c>
       <c r="C18">
-        <v>0.5551380206925919</v>
+        <v>0.8097511491314173</v>
       </c>
       <c r="D18">
-        <v>0.4599951406528085</v>
+        <v>0.6989059004513321</v>
       </c>
       <c r="E18">
-        <v>0.1648304124938354</v>
+        <v>0.4620638440865117</v>
       </c>
       <c r="F18">
-        <v>0.1792758575054055</v>
+        <v>0.01278802738395598</v>
       </c>
       <c r="G18">
-        <v>-0.3437133858380724</v>
+        <v>-0.707018164212072</v>
       </c>
       <c r="H18">
-        <v>-0.1767081963244516</v>
+        <v>-0.3203904063597708</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.005103513833007799</v>
+        <v>-0.2295361101985153</v>
       </c>
       <c r="C19">
-        <v>0.007026768106551307</v>
+        <v>0.776784299572248</v>
       </c>
       <c r="D19">
-        <v>0.007404644875587989</v>
+        <v>0.6999754088670136</v>
       </c>
       <c r="E19">
-        <v>0.005121619506238978</v>
+        <v>0.3260317122066455</v>
       </c>
       <c r="F19">
-        <v>0.004231723639755681</v>
+        <v>0.144310177735177</v>
       </c>
       <c r="G19">
-        <v>-0.001219842426902462</v>
+        <v>-0.8735192814775203</v>
       </c>
       <c r="H19">
-        <v>-0.001499734812662898</v>
+        <v>-0.2612088885993193</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.5401151333484427</v>
+        <v>-0.004398952293020526</v>
       </c>
       <c r="C20">
-        <v>1.035991397664117</v>
+        <v>0.006756756764998419</v>
       </c>
       <c r="D20">
-        <v>0.8526348672798618</v>
+        <v>0.006750908311127918</v>
       </c>
       <c r="E20">
-        <v>0.4463770969308168</v>
+        <v>0.00511464133221942</v>
       </c>
       <c r="F20">
-        <v>0.1179592657906883</v>
+        <v>0.003554202523493676</v>
       </c>
       <c r="G20">
-        <v>-0.7324737942694652</v>
+        <v>-0.001219267173795125</v>
       </c>
       <c r="H20">
-        <v>-0.3313180808749638</v>
+        <v>-0.0009855565860717719</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.2429061708999431</v>
+        <v>-0.005208590667749673</v>
       </c>
       <c r="C21">
-        <v>0.5767048188190531</v>
+        <v>0.007746299882725781</v>
       </c>
       <c r="D21">
-        <v>0.4855683082776476</v>
+        <v>0.006644144502195739</v>
       </c>
       <c r="E21">
-        <v>0.158472894498991</v>
+        <v>0.005059356681184427</v>
       </c>
       <c r="F21">
-        <v>0.3291765594574193</v>
+        <v>0.004862233638311328</v>
       </c>
       <c r="G21">
-        <v>-0.3394789584796964</v>
+        <v>-0.001217889837461291</v>
       </c>
       <c r="H21">
-        <v>-0.1284929716993731</v>
+        <v>-0.0004572382950559313</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.0413427725953591</v>
+        <v>-0.3217265822806043</v>
       </c>
       <c r="C22">
-        <v>0.06072184577172503</v>
+        <v>1.060349275921838</v>
       </c>
       <c r="D22">
-        <v>0.05793425667732191</v>
+        <v>0.6740416594510656</v>
       </c>
       <c r="E22">
-        <v>0.04920858495238144</v>
+        <v>0.3997939738960371</v>
       </c>
       <c r="F22">
-        <v>0.03187799073778574</v>
+        <v>-0.06817114251666968</v>
       </c>
       <c r="G22">
-        <v>-0.01154589736145772</v>
+        <v>-0.9123468652592687</v>
       </c>
       <c r="H22">
-        <v>-0.02035139935309655</v>
+        <v>-0.3913624329253301</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.004843783523630248</v>
+        <v>-0.2858272911399004</v>
       </c>
       <c r="C23">
-        <v>0.007772107702555302</v>
+        <v>0.6941843747505315</v>
       </c>
       <c r="D23">
-        <v>0.00660453186011931</v>
+        <v>0.5605428117679018</v>
       </c>
       <c r="E23">
-        <v>0.004417499534381513</v>
+        <v>0.1554450263973581</v>
       </c>
       <c r="F23">
-        <v>0.004446115501858942</v>
+        <v>0.1699677196103308</v>
       </c>
       <c r="G23">
-        <v>-0.0012158970668396</v>
+        <v>-0.3639979804814457</v>
       </c>
       <c r="H23">
-        <v>-0.0003454930025514838</v>
+        <v>-0.2493465178793237</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.3189278295248764</v>
+        <v>-0.5151203912985208</v>
       </c>
       <c r="C24">
-        <v>0.5888049690186357</v>
+        <v>1.145284042622114</v>
       </c>
       <c r="D24">
-        <v>0.5508797404802601</v>
+        <v>0.6790232113509354</v>
       </c>
       <c r="E24">
-        <v>0.2357036367802441</v>
+        <v>0.3189240536193945</v>
       </c>
       <c r="F24">
-        <v>0.1779714150196406</v>
+        <v>0.2034943858727</v>
       </c>
       <c r="G24">
-        <v>-0.2565514173436119</v>
+        <v>-0.7199933580460036</v>
       </c>
       <c r="H24">
-        <v>-0.1699270597289785</v>
+        <v>-0.3488541017801596</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.03716877414461239</v>
+        <v>-0.2674432329195627</v>
       </c>
       <c r="C25">
-        <v>0.06166147976375688</v>
+        <v>0.6333452232158212</v>
       </c>
       <c r="D25">
-        <v>0.05658559069741137</v>
+        <v>0.4564683044671167</v>
       </c>
       <c r="E25">
-        <v>0.03256481151705247</v>
+        <v>0.194927426692759</v>
       </c>
       <c r="F25">
-        <v>0.04316551412468839</v>
+        <v>0.1466713241366166</v>
       </c>
       <c r="G25">
-        <v>-0.01205521065526038</v>
+        <v>-0.3025952774218666</v>
       </c>
       <c r="H25">
-        <v>-0.0007792443551079622</v>
+        <v>-0.2002657435023622</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.3759456088825976</v>
+        <v>-0.3648451632776765</v>
       </c>
       <c r="C26">
-        <v>0.9810082965916197</v>
+        <v>0.73763894468497</v>
       </c>
       <c r="D26">
-        <v>0.6708829445479836</v>
+        <v>0.567018939190976</v>
       </c>
       <c r="E26">
-        <v>0.3138023386171061</v>
+        <v>0.223614233905487</v>
       </c>
       <c r="F26">
-        <v>0.3139493257996661</v>
+        <v>0.1908978750978543</v>
       </c>
       <c r="G26">
-        <v>-0.8303855908158454</v>
+        <v>-0.3210769492949532</v>
       </c>
       <c r="H26">
-        <v>-0.1415971328512196</v>
+        <v>-0.1012397276240454</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.004089721680567092</v>
+        <v>-0.03853505840863784</v>
       </c>
       <c r="C27">
-        <v>0.006851713605232511</v>
+        <v>0.06256068537282738</v>
       </c>
       <c r="D27">
-        <v>0.005675378016357764</v>
+        <v>0.05458002694935336</v>
       </c>
       <c r="E27">
-        <v>0.004756307833531139</v>
+        <v>0.04109663915494072</v>
       </c>
       <c r="F27">
-        <v>0.004289834920606981</v>
+        <v>0.0381632412172529</v>
       </c>
       <c r="G27">
-        <v>-0.001218700054835191</v>
+        <v>-0.01170140347113242</v>
       </c>
       <c r="H27">
-        <v>-0.00147149143673781</v>
+        <v>-0.01139903513520689</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.3285127547258572</v>
+        <v>-0.2086759212312899</v>
       </c>
       <c r="C28">
-        <v>0.7254139365646897</v>
+        <v>0.3237573673218318</v>
       </c>
       <c r="D28">
-        <v>0.4586617990368942</v>
+        <v>0.2901038838039373</v>
       </c>
       <c r="E28">
-        <v>0.3233091468255079</v>
+        <v>0.224760624092742</v>
       </c>
       <c r="F28">
-        <v>0.1062186995791908</v>
+        <v>0.1271849101397492</v>
       </c>
       <c r="G28">
-        <v>-0.2988877929609121</v>
+        <v>-0.0939530713090147</v>
       </c>
       <c r="H28">
-        <v>-0.175729780932919</v>
+        <v>-0.148419352327805</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.200733484411531</v>
+        <v>-0.2601965573672492</v>
       </c>
       <c r="C29">
-        <v>0.3192413540538488</v>
+        <v>1.001695139738251</v>
       </c>
       <c r="D29">
-        <v>0.3174155882569185</v>
+        <v>0.6612057855942646</v>
       </c>
       <c r="E29">
-        <v>0.1835745614197176</v>
+        <v>0.1858015309028337</v>
       </c>
       <c r="F29">
-        <v>0.1353334861602644</v>
+        <v>-0.006564320615450238</v>
       </c>
       <c r="G29">
-        <v>-0.08397451370791122</v>
+        <v>-0.8103069418234783</v>
       </c>
       <c r="H29">
-        <v>-0.1139745519286479</v>
+        <v>-0.2477153573132661</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.004616995852563951</v>
+        <v>-0.3234095729560351</v>
       </c>
       <c r="C30">
-        <v>0.007241808934529843</v>
+        <v>0.8535965266546335</v>
       </c>
       <c r="D30">
-        <v>0.006304912247472639</v>
+        <v>0.8837348736998691</v>
       </c>
       <c r="E30">
-        <v>0.004602182604933649</v>
+        <v>0.1180055842601785</v>
       </c>
       <c r="F30">
-        <v>0.00465260034605711</v>
+        <v>0.2776520212313463</v>
       </c>
       <c r="G30">
-        <v>-0.001221657655568965</v>
+        <v>-0.9593184780950261</v>
       </c>
       <c r="H30">
-        <v>-0.00143507426105836</v>
+        <v>-0.1906898927211171</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.03863066786366845</v>
+        <v>-0.2850019231486138</v>
       </c>
       <c r="C31">
-        <v>0.05776247244802225</v>
+        <v>0.8784959761666741</v>
       </c>
       <c r="D31">
-        <v>0.06027195799650278</v>
+        <v>0.8107226830657918</v>
       </c>
       <c r="E31">
-        <v>0.04172822408651056</v>
+        <v>0.1967185338175932</v>
       </c>
       <c r="F31">
-        <v>0.03863163390965461</v>
+        <v>0.2146119849009723</v>
       </c>
       <c r="G31">
-        <v>-0.01155919636416301</v>
+        <v>-0.915609651907426</v>
       </c>
       <c r="H31">
-        <v>-0.007444401491977587</v>
+        <v>-0.2143930808910142</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.2171147763736791</v>
+        <v>-0.242489491943269</v>
       </c>
       <c r="C32">
-        <v>0.58732997530613</v>
+        <v>0.9493049767565117</v>
       </c>
       <c r="D32">
-        <v>0.6135110038694538</v>
+        <v>0.7614824963593307</v>
       </c>
       <c r="E32">
-        <v>0.3579861455760582</v>
+        <v>0.1091001994804916</v>
       </c>
       <c r="F32">
-        <v>0.2253637252896909</v>
+        <v>0.3157434982101718</v>
       </c>
       <c r="G32">
-        <v>-0.6667663473488347</v>
+        <v>-1.017525458994982</v>
       </c>
       <c r="H32">
-        <v>-0.2557378432806688</v>
+        <v>-0.1819221995723319</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.3043579479064768</v>
+        <v>-0.2707295153481664</v>
       </c>
       <c r="C33">
-        <v>0.9393058382148688</v>
+        <v>0.8910930419713688</v>
       </c>
       <c r="D33">
-        <v>0.7603205837486482</v>
+        <v>0.8518716256252142</v>
       </c>
       <c r="E33">
-        <v>0.08983542899840036</v>
+        <v>0.3034220173869104</v>
       </c>
       <c r="F33">
-        <v>0.124137187374689</v>
+        <v>-0.06228421611306607</v>
       </c>
       <c r="G33">
-        <v>-0.6851189759857021</v>
+        <v>-0.9458837639925621</v>
       </c>
       <c r="H33">
-        <v>-0.2522400866247362</v>
+        <v>-0.3175008835390213</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.2501847304278917</v>
+        <v>-0.3700305946960209</v>
       </c>
       <c r="C34">
-        <v>0.9868695292112369</v>
+        <v>0.5561246580863648</v>
       </c>
       <c r="D34">
-        <v>0.624273814020979</v>
+        <v>0.7237176480127272</v>
       </c>
       <c r="E34">
-        <v>0.1277921912377997</v>
+        <v>0.2788120507348962</v>
       </c>
       <c r="F34">
-        <v>0.2337073794751663</v>
+        <v>0.2506023570656915</v>
       </c>
       <c r="G34">
-        <v>-0.9665543169046278</v>
+        <v>-0.337769534749547</v>
       </c>
       <c r="H34">
-        <v>-0.3779853981085082</v>
+        <v>-0.146220455162849</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.4212276420910199</v>
+        <v>-0.03992020353642529</v>
       </c>
       <c r="C35">
-        <v>0.8485734832675974</v>
+        <v>0.06122661950453152</v>
       </c>
       <c r="D35">
-        <v>0.9761787826941651</v>
+        <v>0.06405564521552147</v>
       </c>
       <c r="E35">
-        <v>0.1920820515635063</v>
+        <v>0.04003130066674093</v>
       </c>
       <c r="F35">
-        <v>0.2588646735744441</v>
+        <v>0.02960587159855309</v>
       </c>
       <c r="G35">
-        <v>-0.7214745185716089</v>
+        <v>-0.01149013006853682</v>
       </c>
       <c r="H35">
-        <v>-0.4039930543839996</v>
+        <v>-0.01239767085608663</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.2197234213001915</v>
+        <v>-0.345279524490248</v>
       </c>
       <c r="C36">
-        <v>0.3440570071924489</v>
+        <v>1.100099548955596</v>
       </c>
       <c r="D36">
-        <v>0.3029977793042812</v>
+        <v>0.7266239842002403</v>
       </c>
       <c r="E36">
-        <v>0.1453973886846771</v>
+        <v>0.1881726786929885</v>
       </c>
       <c r="F36">
-        <v>0.1663501855377537</v>
+        <v>0.05855496728919089</v>
       </c>
       <c r="G36">
-        <v>-0.0959819603738585</v>
+        <v>-0.8636845931089225</v>
       </c>
       <c r="H36">
-        <v>-0.1451427060365933</v>
+        <v>-0.2469772134792879</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.1883216438329128</v>
+        <v>-0.2157460531098657</v>
       </c>
       <c r="C37">
-        <v>0.3219568177016929</v>
+        <v>0.9575680237381738</v>
       </c>
       <c r="D37">
-        <v>0.2442521712957336</v>
+        <v>0.6514291142006162</v>
       </c>
       <c r="E37">
-        <v>0.2064803044244065</v>
+        <v>0.2338933866148009</v>
       </c>
       <c r="F37">
-        <v>0.1991292665407541</v>
+        <v>0.03129526883198046</v>
       </c>
       <c r="G37">
-        <v>-0.09146875918262855</v>
+        <v>-0.9441764565786364</v>
       </c>
       <c r="H37">
-        <v>-0.04291052908747005</v>
+        <v>-0.253561465187504</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.1579046428487682</v>
+        <v>-0.4469290764213864</v>
       </c>
       <c r="C38">
-        <v>0.266476960353606</v>
+        <v>0.8654479468965475</v>
       </c>
       <c r="D38">
-        <v>0.3026768992452262</v>
+        <v>0.9397254003347516</v>
       </c>
       <c r="E38">
-        <v>0.1775129292800099</v>
+        <v>0.2738974850432748</v>
       </c>
       <c r="F38">
-        <v>0.1359248846741123</v>
+        <v>0.2011897138892896</v>
       </c>
       <c r="G38">
-        <v>-0.09435655181823491</v>
+        <v>-0.6246862449703711</v>
       </c>
       <c r="H38">
-        <v>-0.05903937140702133</v>
+        <v>-0.3481321064254752</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.3950922260917659</v>
+        <v>-0.2752510305514062</v>
       </c>
       <c r="C39">
-        <v>1.038551346299124</v>
+        <v>0.8341266600124233</v>
       </c>
       <c r="D39">
-        <v>0.8898280044489105</v>
+        <v>0.5777465138554903</v>
       </c>
       <c r="E39">
-        <v>0.1465375211013957</v>
+        <v>0.3248341389294587</v>
       </c>
       <c r="F39">
-        <v>0.2640191137983361</v>
+        <v>0.2852242318910602</v>
       </c>
       <c r="G39">
-        <v>-0.7772847230764652</v>
+        <v>-0.707073012155774</v>
       </c>
       <c r="H39">
-        <v>-0.2769449829001182</v>
+        <v>-0.07340449689347049</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.2195658060163512</v>
+        <v>-0.2064283265077958</v>
       </c>
       <c r="C40">
-        <v>0.375829387569574</v>
+        <v>0.3513577311444145</v>
       </c>
       <c r="D40">
-        <v>0.4931591799237295</v>
+        <v>0.278076821169473</v>
       </c>
       <c r="E40">
-        <v>0.311866364672996</v>
+        <v>0.1763098953779464</v>
       </c>
       <c r="F40">
-        <v>0.2570695976155344</v>
+        <v>0.143636746523948</v>
       </c>
       <c r="G40">
-        <v>-0.2812290698363857</v>
+        <v>-0.08693289096995892</v>
       </c>
       <c r="H40">
-        <v>-0.2445503350060213</v>
+        <v>-0.07457790286969225</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.003983717703318495</v>
+        <v>-0.2485297994533619</v>
       </c>
       <c r="C41">
-        <v>0.006628175794566088</v>
+        <v>0.5734914908712793</v>
       </c>
       <c r="D41">
-        <v>0.005934139914684235</v>
+        <v>0.4974218392599561</v>
       </c>
       <c r="E41">
-        <v>0.004529740827641969</v>
+        <v>0.3515110605841784</v>
       </c>
       <c r="F41">
-        <v>0.004391063911037418</v>
+        <v>0.2534224924656036</v>
       </c>
       <c r="G41">
-        <v>-0.001222895105651059</v>
+        <v>-0.5024565384132627</v>
       </c>
       <c r="H41">
-        <v>-0.00076806609975147</v>
+        <v>-0.1905381793266631</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.3592271259715575</v>
+        <v>-0.3519228480645667</v>
       </c>
       <c r="C42">
-        <v>0.8010459719598674</v>
+        <v>0.8580678060796542</v>
       </c>
       <c r="D42">
-        <v>0.7178587268519409</v>
+        <v>0.7692836075356355</v>
       </c>
       <c r="E42">
-        <v>0.2063783828440437</v>
+        <v>0.2144111285735091</v>
       </c>
       <c r="F42">
-        <v>0.4812535624866209</v>
+        <v>0.1179678826042438</v>
       </c>
       <c r="G42">
-        <v>-0.6639032165247472</v>
+        <v>-0.5768653700350435</v>
       </c>
       <c r="H42">
-        <v>-0.09263269265625478</v>
+        <v>-0.2426310451514459</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.4381299433718791</v>
+        <v>-0.3065096222479366</v>
       </c>
       <c r="C43">
-        <v>0.8533305722509221</v>
+        <v>0.6086453674306259</v>
       </c>
       <c r="D43">
-        <v>0.9454267596664911</v>
+        <v>0.5060062507491753</v>
       </c>
       <c r="E43">
-        <v>0.3200466379063215</v>
+        <v>0.2338093136222278</v>
       </c>
       <c r="F43">
-        <v>0.05313456648052693</v>
+        <v>0.196556487808067</v>
       </c>
       <c r="G43">
-        <v>-0.7243585702917179</v>
+        <v>-0.2856918015945111</v>
       </c>
       <c r="H43">
-        <v>-0.5390442871734999</v>
+        <v>-0.07618350080964519</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.408765091734188</v>
+        <v>-0.3198793495046397</v>
       </c>
       <c r="C44">
-        <v>1.045375182856585</v>
+        <v>0.5999648567176346</v>
       </c>
       <c r="D44">
-        <v>0.7294042767178481</v>
+        <v>0.4781974951916543</v>
       </c>
       <c r="E44">
-        <v>0.3856853991789991</v>
+        <v>0.2620619151200906</v>
       </c>
       <c r="F44">
-        <v>0.02119512957171218</v>
+        <v>0.2747409951983872</v>
       </c>
       <c r="G44">
-        <v>-0.76018411063863</v>
+        <v>-0.2866113974086112</v>
       </c>
       <c r="H44">
-        <v>-0.4697034743561618</v>
+        <v>-0.1760163452463009</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.005142479653963731</v>
+        <v>-0.4781039621396069</v>
       </c>
       <c r="C45">
-        <v>0.007365633230250379</v>
+        <v>1.254343721732897</v>
       </c>
       <c r="D45">
-        <v>0.00630904390526855</v>
+        <v>1.057063258939474</v>
       </c>
       <c r="E45">
-        <v>0.004985556642088412</v>
+        <v>-0.05538379306554232</v>
       </c>
       <c r="F45">
-        <v>0.005005834640530013</v>
+        <v>0.3390333197256844</v>
       </c>
       <c r="G45">
-        <v>-0.001215914524441807</v>
+        <v>-1.211876441233287</v>
       </c>
       <c r="H45">
-        <v>-0.002725650215671913</v>
+        <v>-0.3651184756407972</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.3447913361794063</v>
+        <v>-0.3083638273358732</v>
       </c>
       <c r="C46">
-        <v>0.8810788210534234</v>
+        <v>0.8403828908536678</v>
       </c>
       <c r="D46">
-        <v>0.7588902618483426</v>
+        <v>0.693999165967779</v>
       </c>
       <c r="E46">
-        <v>0.1959263413815336</v>
+        <v>0.3284471091151657</v>
       </c>
       <c r="F46">
-        <v>0.07924827434226829</v>
+        <v>0.2494126813847032</v>
       </c>
       <c r="G46">
-        <v>-0.6564287872341669</v>
+        <v>-0.8565012505655182</v>
       </c>
       <c r="H46">
-        <v>-0.369643302387298</v>
+        <v>-0.3840217890272082</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.4247031012052518</v>
+        <v>-0.3579721590734122</v>
       </c>
       <c r="C47">
-        <v>0.9179016995129335</v>
+        <v>0.8316978830754163</v>
       </c>
       <c r="D47">
-        <v>1.074070982658643</v>
+        <v>0.7027689719811058</v>
       </c>
       <c r="E47">
-        <v>0.126520319526004</v>
+        <v>0.1762210087765161</v>
       </c>
       <c r="F47">
-        <v>0.3224673244305261</v>
+        <v>0.3136178442558181</v>
       </c>
       <c r="G47">
-        <v>-0.8552062685527483</v>
+        <v>-0.5810946026774362</v>
       </c>
       <c r="H47">
-        <v>-0.2935871114772558</v>
+        <v>-0.2757694034485378</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.1791620520704937</v>
+        <v>-0.4052268484317044</v>
       </c>
       <c r="C48">
-        <v>0.3097219761345251</v>
+        <v>0.8553558462912357</v>
       </c>
       <c r="D48">
-        <v>0.2809959568191532</v>
+        <v>0.9561147315398975</v>
       </c>
       <c r="E48">
-        <v>0.1639541294258464</v>
+        <v>0.2916139504397416</v>
       </c>
       <c r="F48">
-        <v>0.1821265303352703</v>
+        <v>0.2383229599341097</v>
       </c>
       <c r="G48">
-        <v>-0.1012238642376191</v>
+        <v>-0.8768152244176965</v>
       </c>
       <c r="H48">
-        <v>-0.03739680445708417</v>
+        <v>-0.3161206082462825</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.2745693930743133</v>
+        <v>-0.5149585085839938</v>
       </c>
       <c r="C49">
-        <v>0.8107913937430739</v>
+        <v>0.809958285787992</v>
       </c>
       <c r="D49">
-        <v>0.5762541267223704</v>
+        <v>0.9119827990144995</v>
       </c>
       <c r="E49">
-        <v>0.2764596233281094</v>
+        <v>0.3659297117457606</v>
       </c>
       <c r="F49">
-        <v>0.1858961598410062</v>
+        <v>0.2233619696472166</v>
       </c>
       <c r="G49">
-        <v>-0.670601295742324</v>
+        <v>-0.5673094992316309</v>
       </c>
       <c r="H49">
-        <v>-0.2799070299668578</v>
+        <v>-0.3469295436077692</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.004901694494853821</v>
+        <v>-0.2149233221037709</v>
       </c>
       <c r="C50">
-        <v>0.006769994042646055</v>
+        <v>0.5702282050411108</v>
       </c>
       <c r="D50">
-        <v>0.007176045482367948</v>
+        <v>0.8328252994312462</v>
       </c>
       <c r="E50">
-        <v>0.005707971165233071</v>
+        <v>0.1399229933254204</v>
       </c>
       <c r="F50">
-        <v>0.0037919409744258</v>
+        <v>0.5011172977452045</v>
       </c>
       <c r="G50">
-        <v>-0.001218633478023773</v>
+        <v>-0.9490379367606653</v>
       </c>
       <c r="H50">
-        <v>-0.0008857046456985672</v>
+        <v>-0.1714657384491677</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.3178334346371296</v>
+        <v>-0.2549017755618515</v>
       </c>
       <c r="C51">
-        <v>0.9548557514049567</v>
+        <v>0.9900322089960333</v>
       </c>
       <c r="D51">
-        <v>0.8399049941693661</v>
+        <v>0.5791329644952184</v>
       </c>
       <c r="E51">
-        <v>0.2733119264802705</v>
+        <v>0.245467483222512</v>
       </c>
       <c r="F51">
-        <v>0.2814906550773148</v>
+        <v>0.09680028879273742</v>
       </c>
       <c r="G51">
-        <v>-1.07630408975392</v>
+        <v>-0.9020409988862633</v>
       </c>
       <c r="H51">
-        <v>-0.3486627399863869</v>
+        <v>-0.2067132333316345</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.1753990645083222</v>
+        <v>-0.004397721300600536</v>
       </c>
       <c r="C52">
-        <v>0.339407904693716</v>
+        <v>0.007005379837094326</v>
       </c>
       <c r="D52">
-        <v>0.2833734069755493</v>
+        <v>0.005934806843479543</v>
       </c>
       <c r="E52">
-        <v>0.1631775049515003</v>
+        <v>0.004642350117248102</v>
       </c>
       <c r="F52">
-        <v>0.1056202356122934</v>
+        <v>0.00478972776371799</v>
       </c>
       <c r="G52">
-        <v>-0.09620070009503508</v>
+        <v>-0.001223123111720437</v>
       </c>
       <c r="H52">
-        <v>-0.07485064496772842</v>
+        <v>-0.001508489883876924</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.002978340427382553</v>
+        <v>-0.1891264136222581</v>
       </c>
       <c r="C53">
-        <v>0.005499791683576874</v>
+        <v>0.2519530286797748</v>
       </c>
       <c r="D53">
-        <v>0.005735012469970255</v>
+        <v>0.3368140113165934</v>
       </c>
       <c r="E53">
-        <v>0.003809979387105109</v>
+        <v>0.1865196002846519</v>
       </c>
       <c r="F53">
-        <v>0.003678844780050568</v>
+        <v>0.1057084636657338</v>
       </c>
       <c r="G53">
-        <v>-0.001219788140357882</v>
+        <v>-0.08761698812610612</v>
       </c>
       <c r="H53">
-        <v>-0.001040523380848574</v>
+        <v>-0.1611042338277491</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.3749332761235614</v>
+        <v>-0.307143448603042</v>
       </c>
       <c r="C54">
-        <v>0.6135727440502168</v>
+        <v>0.7029143357680481</v>
       </c>
       <c r="D54">
-        <v>0.7551285144280021</v>
+        <v>0.4704175458773815</v>
       </c>
       <c r="E54">
-        <v>0.3425662815835895</v>
+        <v>0.2691661270794076</v>
       </c>
       <c r="F54">
-        <v>0.2973287198304836</v>
+        <v>0.09449977247224196</v>
       </c>
       <c r="G54">
-        <v>-0.5062282011207044</v>
+        <v>-0.3118093862172983</v>
       </c>
       <c r="H54">
-        <v>-0.09470743769396923</v>
+        <v>-0.150847017852218</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.004281947146909629</v>
+        <v>-0.4267354984275857</v>
       </c>
       <c r="C55">
-        <v>0.006353250352309017</v>
+        <v>1.059678166484129</v>
       </c>
       <c r="D55">
-        <v>0.006865115321493821</v>
+        <v>0.7709961795150616</v>
       </c>
       <c r="E55">
-        <v>0.004855274136744271</v>
+        <v>0.2641036478471563</v>
       </c>
       <c r="F55">
-        <v>0.003889098670952529</v>
+        <v>0.138087950164151</v>
       </c>
       <c r="G55">
-        <v>-0.001219774165338839</v>
+        <v>-0.7543671466816522</v>
       </c>
       <c r="H55">
-        <v>-0.001388532648831645</v>
+        <v>-0.2642570177989209</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.4933239723674414</v>
+        <v>-0.2183959718446255</v>
       </c>
       <c r="C56">
-        <v>1.124478748712633</v>
+        <v>0.6444313916369193</v>
       </c>
       <c r="D56">
-        <v>0.6667353970369519</v>
+        <v>0.688977874195647</v>
       </c>
       <c r="E56">
-        <v>0.2416740263920302</v>
+        <v>0.3020869335359586</v>
       </c>
       <c r="F56">
-        <v>-0.05093448579230753</v>
+        <v>0.159506497396571</v>
       </c>
       <c r="G56">
-        <v>-0.4183052166083382</v>
+        <v>-0.6728153324463275</v>
       </c>
       <c r="H56">
-        <v>-0.3018667732294127</v>
+        <v>-0.2310955904176445</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.3908161975073318</v>
+        <v>-0.003975517979571645</v>
       </c>
       <c r="C57">
-        <v>0.6872686173017162</v>
+        <v>0.006912896485125228</v>
       </c>
       <c r="D57">
-        <v>0.6894305446746342</v>
+        <v>0.006612968203849508</v>
       </c>
       <c r="E57">
-        <v>0.3142523674426516</v>
+        <v>0.003586850096064041</v>
       </c>
       <c r="F57">
-        <v>0.08437710088786979</v>
+        <v>0.003805111825539296</v>
       </c>
       <c r="G57">
-        <v>-0.3449130566787537</v>
+        <v>-0.001221826665451297</v>
       </c>
       <c r="H57">
-        <v>-0.09986385603344515</v>
+        <v>-0.0008772310789189763</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.316034939216182</v>
+        <v>-0.2969969771207178</v>
       </c>
       <c r="C58">
-        <v>0.6434993464914825</v>
+        <v>0.5650189605195787</v>
       </c>
       <c r="D58">
-        <v>0.5488103465576784</v>
+        <v>0.4865868878742484</v>
       </c>
       <c r="E58">
-        <v>0.2589741428953338</v>
+        <v>0.3104301465482919</v>
       </c>
       <c r="F58">
-        <v>0.2285252356824685</v>
+        <v>0.1588601556276631</v>
       </c>
       <c r="G58">
-        <v>-0.3499468593980065</v>
+        <v>-0.3254800905014573</v>
       </c>
       <c r="H58">
-        <v>-0.06966243721775822</v>
+        <v>-0.2028469054747126</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.2344519785248769</v>
+        <v>-0.3377929977702231</v>
       </c>
       <c r="C59">
-        <v>0.5505705933656327</v>
+        <v>0.586681437395748</v>
       </c>
       <c r="D59">
-        <v>0.4540271302054995</v>
+        <v>0.5395332459827027</v>
       </c>
       <c r="E59">
-        <v>0.3121666070876122</v>
+        <v>0.3425370010564624</v>
       </c>
       <c r="F59">
-        <v>0.1247404587210687</v>
+        <v>0.1537169885687491</v>
       </c>
       <c r="G59">
-        <v>-0.2766065639698386</v>
+        <v>-0.2675087375463283</v>
       </c>
       <c r="H59">
-        <v>-0.1706876095572639</v>
+        <v>-0.1539644992690521</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.3995946365185407</v>
+        <v>-0.04607733118070984</v>
       </c>
       <c r="C60">
-        <v>0.8408634745395008</v>
+        <v>0.07619228808877927</v>
       </c>
       <c r="D60">
-        <v>0.8805468365584233</v>
+        <v>0.05159143576943055</v>
       </c>
       <c r="E60">
-        <v>0.3215794688427372</v>
+        <v>0.03701666873703317</v>
       </c>
       <c r="F60">
-        <v>0.2469231061440747</v>
+        <v>0.03820069946752448</v>
       </c>
       <c r="G60">
-        <v>-0.7643641955883909</v>
+        <v>-0.01133989187347661</v>
       </c>
       <c r="H60">
-        <v>-0.6356292345040689</v>
+        <v>-0.02504485611729818</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.3419952110569641</v>
+        <v>-0.3357972846546593</v>
       </c>
       <c r="C61">
-        <v>0.623458032648912</v>
+        <v>0.8470710349310797</v>
       </c>
       <c r="D61">
-        <v>0.521707288675764</v>
+        <v>0.5444733841230067</v>
       </c>
       <c r="E61">
-        <v>0.2922000984682927</v>
+        <v>0.2768379195404068</v>
       </c>
       <c r="F61">
-        <v>0.2923991499235691</v>
+        <v>-0.01304263643182868</v>
       </c>
       <c r="G61">
-        <v>-0.3090993499529207</v>
+        <v>-0.4384861430169075</v>
       </c>
       <c r="H61">
-        <v>0.01645840631104589</v>
+        <v>-0.1737134178768921</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.200539769678183</v>
+        <v>-0.003486573615157882</v>
       </c>
       <c r="C62">
-        <v>0.3529134244884197</v>
+        <v>0.006601688407954094</v>
       </c>
       <c r="D62">
-        <v>0.32411224236923</v>
+        <v>0.005309415267870422</v>
       </c>
       <c r="E62">
-        <v>0.1510937881695704</v>
+        <v>0.00398769676736929</v>
       </c>
       <c r="F62">
-        <v>0.09686283154712846</v>
+        <v>0.004168257804313742</v>
       </c>
       <c r="G62">
-        <v>-0.08261664824560784</v>
+        <v>-0.001219714199081023</v>
       </c>
       <c r="H62">
-        <v>-0.06078968620086055</v>
+        <v>-0.0009505912981760753</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.3952681202702936</v>
+        <v>-0.2518622043033834</v>
       </c>
       <c r="C63">
-        <v>1.094984864002596</v>
+        <v>0.6669886654147481</v>
       </c>
       <c r="D63">
-        <v>0.9342549260038748</v>
+        <v>0.5210294940198429</v>
       </c>
       <c r="E63">
-        <v>0.144465335193378</v>
+        <v>0.1941309272714525</v>
       </c>
       <c r="F63">
-        <v>0.07418342405524005</v>
+        <v>0.2599748621451158</v>
       </c>
       <c r="G63">
-        <v>-0.7661679043447853</v>
+        <v>-0.463017561200455</v>
       </c>
       <c r="H63">
-        <v>-0.3658423112132244</v>
+        <v>-0.2365796722608997</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.3060748859560914</v>
+        <v>-0.2426212662411051</v>
       </c>
       <c r="C64">
-        <v>0.6969065773588956</v>
+        <v>0.9149499363360629</v>
       </c>
       <c r="D64">
-        <v>0.7837159457905664</v>
+        <v>0.5602151471664367</v>
       </c>
       <c r="E64">
-        <v>0.2519209687223574</v>
+        <v>0.3042058114395422</v>
       </c>
       <c r="F64">
-        <v>0.2137694984699968</v>
+        <v>0.01414696634760159</v>
       </c>
       <c r="G64">
-        <v>-0.6741208674253106</v>
+        <v>-0.6776781516737105</v>
       </c>
       <c r="H64">
-        <v>-0.5047077373968352</v>
+        <v>-0.195946434578381</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.004986817032997241</v>
+        <v>-0.3670786333385778</v>
       </c>
       <c r="C65">
-        <v>0.007602142139528511</v>
+        <v>0.7807120528922766</v>
       </c>
       <c r="D65">
-        <v>0.006039102712648235</v>
+        <v>0.6770947086535143</v>
       </c>
       <c r="E65">
-        <v>0.004615838392411441</v>
+        <v>0.2093887920760208</v>
       </c>
       <c r="F65">
-        <v>0.005546137243036624</v>
+        <v>0.135283332011815</v>
       </c>
       <c r="G65">
-        <v>-0.001220433177383413</v>
+        <v>-0.4448753364653019</v>
       </c>
       <c r="H65">
-        <v>-0.00106982566488741</v>
+        <v>-0.3371946465319849</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.3010609488288641</v>
+        <v>-0.2839873406890136</v>
       </c>
       <c r="C66">
-        <v>0.7801430093115623</v>
+        <v>0.6853466764425877</v>
       </c>
       <c r="D66">
-        <v>0.7937163662564848</v>
+        <v>0.4809019609339377</v>
       </c>
       <c r="E66">
-        <v>0.3625736703874763</v>
+        <v>0.2298660595301802</v>
       </c>
       <c r="F66">
-        <v>0.24640067177251</v>
+        <v>0.08604818850307243</v>
       </c>
       <c r="G66">
-        <v>-0.8194767677975764</v>
+        <v>-0.3147462880257809</v>
       </c>
       <c r="H66">
-        <v>-0.1034842138722518</v>
+        <v>-0.132230690504841</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.3511222656292702</v>
+        <v>-0.470341798873307</v>
       </c>
       <c r="C67">
-        <v>0.8631396903499901</v>
+        <v>0.884251017250579</v>
       </c>
       <c r="D67">
-        <v>0.6630497777891979</v>
+        <v>0.9944761129811212</v>
       </c>
       <c r="E67">
-        <v>0.2932393148898578</v>
+        <v>0.2059395537937212</v>
       </c>
       <c r="F67">
-        <v>0.1779216353875182</v>
+        <v>0.1080499365156322</v>
       </c>
       <c r="G67">
-        <v>-0.5265387710891157</v>
+        <v>-0.6116763846990009</v>
       </c>
       <c r="H67">
-        <v>-0.3321218623979745</v>
+        <v>-0.3575410788031897</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.283500166075538</v>
+        <v>-0.1965673994088238</v>
       </c>
       <c r="C68">
-        <v>0.9128375439003296</v>
+        <v>0.3164691655681864</v>
       </c>
       <c r="D68">
-        <v>0.706889804250501</v>
+        <v>0.3051066157585827</v>
       </c>
       <c r="E68">
-        <v>0.239896378507587</v>
+        <v>0.2014467893641084</v>
       </c>
       <c r="F68">
-        <v>0.05718929523692833</v>
+        <v>0.1196073794986352</v>
       </c>
       <c r="G68">
-        <v>-0.7774756658464774</v>
+        <v>-0.09451028560632803</v>
       </c>
       <c r="H68">
-        <v>-0.3532852036528883</v>
+        <v>-0.1152519806780806</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.285895243273552</v>
+        <v>-0.1923710346204946</v>
       </c>
       <c r="C69">
-        <v>0.7258961157042928</v>
+        <v>0.9183961056888013</v>
       </c>
       <c r="D69">
-        <v>0.6603482227845184</v>
+        <v>0.5686843571612755</v>
       </c>
       <c r="E69">
-        <v>0.1799440861744554</v>
+        <v>0.1936963636850039</v>
       </c>
       <c r="F69">
-        <v>0.2614836392748593</v>
+        <v>0.03905166083810398</v>
       </c>
       <c r="G69">
-        <v>-0.5532564501774617</v>
+        <v>-0.8196465748102382</v>
       </c>
       <c r="H69">
-        <v>-0.2015079172117735</v>
+        <v>-0.2400162985977162</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.1715621096630512</v>
+        <v>-0.2882246132948479</v>
       </c>
       <c r="C70">
-        <v>0.3042507584724325</v>
+        <v>0.5313668587373528</v>
       </c>
       <c r="D70">
-        <v>0.3019062858356593</v>
+        <v>0.5427907635283744</v>
       </c>
       <c r="E70">
-        <v>0.1538206454729132</v>
+        <v>0.280971251373521</v>
       </c>
       <c r="F70">
-        <v>0.1569113147652281</v>
+        <v>0.2637509177322418</v>
       </c>
       <c r="G70">
-        <v>-0.1089213264106413</v>
+        <v>-0.3448271843787372</v>
       </c>
       <c r="H70">
-        <v>-0.05878607784819002</v>
+        <v>-0.2151542394917239</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.2710531979957703</v>
+        <v>-0.3178182132340823</v>
       </c>
       <c r="C71">
-        <v>0.9331381786699471</v>
+        <v>0.545314801874295</v>
       </c>
       <c r="D71">
-        <v>0.6624712225194039</v>
+        <v>0.710992721011028</v>
       </c>
       <c r="E71">
-        <v>0.2260936586382791</v>
+        <v>0.1338983004585663</v>
       </c>
       <c r="F71">
-        <v>0.2029851489231336</v>
+        <v>0.1847056000549239</v>
       </c>
       <c r="G71">
-        <v>-0.8986562807373791</v>
+        <v>-0.3106991467845284</v>
       </c>
       <c r="H71">
-        <v>-0.280923247061266</v>
+        <v>-0.2760963743343917</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.2418173408824009</v>
+        <v>-0.4454510398134555</v>
       </c>
       <c r="C72">
-        <v>0.7383551005395442</v>
+        <v>1.109141620536682</v>
       </c>
       <c r="D72">
-        <v>0.5810042630530382</v>
+        <v>0.9656651059733244</v>
       </c>
       <c r="E72">
-        <v>0.1577228108766291</v>
+        <v>0.2303810594748144</v>
       </c>
       <c r="F72">
-        <v>0.03097400359154998</v>
+        <v>0.1194836161361903</v>
       </c>
       <c r="G72">
-        <v>-0.5094334829246024</v>
+        <v>-0.8414006604807625</v>
       </c>
       <c r="H72">
-        <v>-0.1621455082359654</v>
+        <v>-0.2137471306387431</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.4072859242824519</v>
+        <v>-0.3033328372087701</v>
       </c>
       <c r="C73">
-        <v>1.137291395181216</v>
+        <v>1.028142551653466</v>
       </c>
       <c r="D73">
-        <v>0.8560837008799577</v>
+        <v>0.6382807025758526</v>
       </c>
       <c r="E73">
-        <v>0.1359442371568334</v>
+        <v>0.2407130952358331</v>
       </c>
       <c r="F73">
-        <v>0.2043345854635606</v>
+        <v>0.06329719312864843</v>
       </c>
       <c r="G73">
-        <v>-0.8764333959446639</v>
+        <v>-0.7850536028492175</v>
       </c>
       <c r="H73">
-        <v>-0.2110512283124792</v>
+        <v>-0.1367482172191377</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.3480886513508101</v>
+        <v>-0.4453704203181684</v>
       </c>
       <c r="C74">
-        <v>0.7973823649127526</v>
+        <v>0.7227370908866271</v>
       </c>
       <c r="D74">
-        <v>0.8129503456654097</v>
+        <v>0.9679624223560012</v>
       </c>
       <c r="E74">
-        <v>0.3009947550786145</v>
+        <v>0.1222908638170431</v>
       </c>
       <c r="F74">
-        <v>0.1099557013839987</v>
+        <v>0.2274682993163882</v>
       </c>
       <c r="G74">
-        <v>-0.6505931898504891</v>
+        <v>-0.4962680531213747</v>
       </c>
       <c r="H74">
-        <v>-0.4301626728875109</v>
+        <v>-0.3413060042325027</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.04919537081623724</v>
+        <v>-0.3023855805907976</v>
       </c>
       <c r="C75">
-        <v>0.0644351686688521</v>
+        <v>0.7101460641739178</v>
       </c>
       <c r="D75">
-        <v>0.06348265347919733</v>
+        <v>0.8572692664864401</v>
       </c>
       <c r="E75">
-        <v>0.0467183953901251</v>
+        <v>0.3009353257188778</v>
       </c>
       <c r="F75">
-        <v>0.04369430148924362</v>
+        <v>0.5393766352533521</v>
       </c>
       <c r="G75">
-        <v>-0.01184358848173708</v>
+        <v>-1.021435872276383</v>
       </c>
       <c r="H75">
-        <v>-0.02130808115844428</v>
+        <v>-0.1049101185893905</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.3236319469331912</v>
+        <v>-0.1965262479958985</v>
       </c>
       <c r="C76">
-        <v>0.9562593567099553</v>
+        <v>0.3324612825810033</v>
       </c>
       <c r="D76">
-        <v>0.5620023050210179</v>
+        <v>0.3146970462245487</v>
       </c>
       <c r="E76">
-        <v>0.3364580320335328</v>
+        <v>0.153225781715208</v>
       </c>
       <c r="F76">
-        <v>0.2225810876605178</v>
+        <v>0.1836878714256207</v>
       </c>
       <c r="G76">
-        <v>-0.8681031098902862</v>
+        <v>-0.1016779824415614</v>
       </c>
       <c r="H76">
-        <v>-0.2328454449536935</v>
+        <v>-0.07138995832209678</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.2906245475081747</v>
+        <v>-0.3749632128113669</v>
       </c>
       <c r="C77">
-        <v>0.7701702823481833</v>
+        <v>1.102916398541885</v>
       </c>
       <c r="D77">
-        <v>0.4535444881596232</v>
+        <v>0.9704647675075658</v>
       </c>
       <c r="E77">
-        <v>0.2460737367067845</v>
+        <v>0.0126024747761192</v>
       </c>
       <c r="F77">
-        <v>0.1569884873745922</v>
+        <v>0.3404681230011125</v>
       </c>
       <c r="G77">
-        <v>-0.3941096338910597</v>
+        <v>-1.096984132561561</v>
       </c>
       <c r="H77">
-        <v>-0.1538879836875786</v>
+        <v>-0.0210267406391333</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.2577965815341193</v>
+        <v>-0.0441635063106701</v>
       </c>
       <c r="C78">
-        <v>0.5920901662674086</v>
+        <v>0.06820696885132981</v>
       </c>
       <c r="D78">
-        <v>0.5248674033056273</v>
+        <v>0.06007993138762573</v>
       </c>
       <c r="E78">
-        <v>0.1862854237163061</v>
+        <v>0.04779859179714311</v>
       </c>
       <c r="F78">
-        <v>0.09174729627989034</v>
+        <v>0.02969768465463965</v>
       </c>
       <c r="G78">
-        <v>-0.2550044253973492</v>
+        <v>-0.01164157174665621</v>
       </c>
       <c r="H78">
-        <v>-0.1395956634025644</v>
+        <v>-0.01060344026204871</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.1858336572660328</v>
+        <v>-0.3624972395928259</v>
       </c>
       <c r="C79">
-        <v>0.2864932507551033</v>
+        <v>0.7031727920171394</v>
       </c>
       <c r="D79">
-        <v>0.2664224782712641</v>
+        <v>0.6047933082142325</v>
       </c>
       <c r="E79">
-        <v>0.211033678095402</v>
+        <v>0.3063092078896318</v>
       </c>
       <c r="F79">
-        <v>0.1793104092674632</v>
+        <v>0.2134605955190468</v>
       </c>
       <c r="G79">
-        <v>-0.07797633182866902</v>
+        <v>-0.4143489145538221</v>
       </c>
       <c r="H79">
-        <v>-0.02610150951318046</v>
+        <v>-0.2968335649881462</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.4742031731665081</v>
+        <v>-0.2977988514400214</v>
       </c>
       <c r="C80">
-        <v>1.085762818052421</v>
+        <v>0.6741187004730012</v>
       </c>
       <c r="D80">
-        <v>0.9649445376303276</v>
+        <v>0.7725456830671493</v>
       </c>
       <c r="E80">
-        <v>0.1679471863075397</v>
+        <v>0.242015303645787</v>
       </c>
       <c r="F80">
-        <v>0.03883032501290908</v>
+        <v>0.3531649520602638</v>
       </c>
       <c r="G80">
-        <v>-0.72430974114832</v>
+        <v>-0.7584088646470457</v>
       </c>
       <c r="H80">
-        <v>-0.4156834619043449</v>
+        <v>-0.07365493847236783</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.04661950396808193</v>
+        <v>-0.4125219031900101</v>
       </c>
       <c r="C81">
-        <v>0.06665385393917664</v>
+        <v>1.093031322750575</v>
       </c>
       <c r="D81">
-        <v>0.05951323463502863</v>
+        <v>0.7805749569106307</v>
       </c>
       <c r="E81">
-        <v>0.05096400580181572</v>
+        <v>0.18264883426629</v>
       </c>
       <c r="F81">
-        <v>0.03798053270838846</v>
+        <v>0.1625179559320189</v>
       </c>
       <c r="G81">
-        <v>-0.01154486390500795</v>
+        <v>-0.809803373031412</v>
       </c>
       <c r="H81">
-        <v>-0.009600463645057606</v>
+        <v>-0.2867125104458237</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.2888824526228151</v>
+        <v>-0.2228133719134575</v>
       </c>
       <c r="C82">
-        <v>0.5880003712501318</v>
+        <v>0.3315511415507383</v>
       </c>
       <c r="D82">
-        <v>0.4602443449725439</v>
+        <v>0.3302844576194267</v>
       </c>
       <c r="E82">
-        <v>0.2574272444869743</v>
+        <v>0.1736738121481048</v>
       </c>
       <c r="F82">
-        <v>0.2613933157905526</v>
+        <v>0.1704049342492983</v>
       </c>
       <c r="G82">
-        <v>-0.2969900757270895</v>
+        <v>-0.1063997384123996</v>
       </c>
       <c r="H82">
-        <v>-0.2077492865857232</v>
+        <v>-0.06965952110040084</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.3579542930005143</v>
+        <v>-0.3518857095768252</v>
       </c>
       <c r="C83">
-        <v>0.7629767395249127</v>
+        <v>0.6137858391934463</v>
       </c>
       <c r="D83">
-        <v>0.8077978369363499</v>
+        <v>0.4930490713315212</v>
       </c>
       <c r="E83">
-        <v>0.2807796269525163</v>
+        <v>0.3591725181294031</v>
       </c>
       <c r="F83">
-        <v>0.1626422332437705</v>
+        <v>0.2747463834483939</v>
       </c>
       <c r="G83">
-        <v>-0.5644442555875158</v>
+        <v>-0.2833973462078092</v>
       </c>
       <c r="H83">
-        <v>-0.1618545437649168</v>
+        <v>-0.07630073177417278</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.1757207389152724</v>
+        <v>-0.003848398389122024</v>
       </c>
       <c r="C84">
-        <v>0.3124554303745144</v>
+        <v>0.006995731996950214</v>
       </c>
       <c r="D84">
-        <v>0.290874208762568</v>
+        <v>0.005565536287981652</v>
       </c>
       <c r="E84">
-        <v>0.1669030842351827</v>
+        <v>0.004187464518154837</v>
       </c>
       <c r="F84">
-        <v>0.1040128710361719</v>
+        <v>0.003816839231087927</v>
       </c>
       <c r="G84">
-        <v>-0.08311184696485166</v>
+        <v>-0.00122189621329947</v>
       </c>
       <c r="H84">
-        <v>-0.14725608581149</v>
+        <v>-0.002032622258231659</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.3865344817160553</v>
+        <v>-0.4147826468198773</v>
       </c>
       <c r="C85">
-        <v>0.7767901561626439</v>
+        <v>0.724980653999839</v>
       </c>
       <c r="D85">
-        <v>0.9547299619805018</v>
+        <v>0.8149519774548418</v>
       </c>
       <c r="E85">
-        <v>0.1889540401691278</v>
+        <v>0.2374051031596075</v>
       </c>
       <c r="F85">
-        <v>0.3132900397404477</v>
+        <v>0.2446344364000324</v>
       </c>
       <c r="G85">
-        <v>-0.7303215344001491</v>
+        <v>-0.4955876518476399</v>
       </c>
       <c r="H85">
-        <v>-0.4107177835957911</v>
+        <v>-0.1813269542230133</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.00412471164525797</v>
+        <v>-0.3285243971652224</v>
       </c>
       <c r="C86">
-        <v>0.006096121641991866</v>
+        <v>0.8292410411565756</v>
       </c>
       <c r="D86">
-        <v>0.006987042716551482</v>
+        <v>0.7776238278301001</v>
       </c>
       <c r="E86">
-        <v>0.004615582988718173</v>
+        <v>0.2594823168483325</v>
       </c>
       <c r="F86">
-        <v>0.003861151687968901</v>
+        <v>0.01267036269402548</v>
       </c>
       <c r="G86">
-        <v>-0.001220100695060081</v>
+        <v>-0.6847320189072039</v>
       </c>
       <c r="H86">
-        <v>-0.001147880836990291</v>
+        <v>-0.4010302247312931</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.3360123414090567</v>
+        <v>-0.4348472660984095</v>
       </c>
       <c r="C87">
-        <v>1.042327670210955</v>
+        <v>0.7869790062569525</v>
       </c>
       <c r="D87">
-        <v>0.6308747322008162</v>
+        <v>0.8001387883151114</v>
       </c>
       <c r="E87">
-        <v>0.3483518277646092</v>
+        <v>0.3639970573810287</v>
       </c>
       <c r="F87">
-        <v>-0.05140436669326829</v>
+        <v>0.3779641410200215</v>
       </c>
       <c r="G87">
-        <v>-0.7721816132864345</v>
+        <v>-0.7013345036925148</v>
       </c>
       <c r="H87">
-        <v>-0.4064852409385799</v>
+        <v>-0.4453218635570625</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.003762771209593977</v>
+        <v>-0.2851190459107449</v>
       </c>
       <c r="C88">
-        <v>0.006729465607026786</v>
+        <v>0.6057569533945801</v>
       </c>
       <c r="D88">
-        <v>0.005791035428623149</v>
+        <v>0.5289176712057384</v>
       </c>
       <c r="E88">
-        <v>0.0046887157756766</v>
+        <v>0.2018750626373101</v>
       </c>
       <c r="F88">
-        <v>0.003364152140481352</v>
+        <v>0.2922120685898472</v>
       </c>
       <c r="G88">
-        <v>-0.001218889500649062</v>
+        <v>-0.3885120798027262</v>
       </c>
       <c r="H88">
-        <v>-0.001160568058482365</v>
+        <v>-0.1200058398634325</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.004977160373832569</v>
+        <v>-0.3521172599566127</v>
       </c>
       <c r="C89">
-        <v>0.007430696961181918</v>
+        <v>0.9694078575395427</v>
       </c>
       <c r="D89">
-        <v>0.006993751405182357</v>
+        <v>0.7066588746556529</v>
       </c>
       <c r="E89">
-        <v>0.005218421227412662</v>
+        <v>0.1749574016193466</v>
       </c>
       <c r="F89">
-        <v>0.003598551402684784</v>
+        <v>0.5178060356545499</v>
       </c>
       <c r="G89">
-        <v>-0.001221419440605727</v>
+        <v>-0.9356658802843973</v>
       </c>
       <c r="H89">
-        <v>-0.001615439746023739</v>
+        <v>-0.131131004491041</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.2421349418324061</v>
+        <v>-0.005212438263079711</v>
       </c>
       <c r="C90">
-        <v>0.3690324845870243</v>
+        <v>0.007409871453826897</v>
       </c>
       <c r="D90">
-        <v>0.3331129196052691</v>
+        <v>0.007031606363039773</v>
       </c>
       <c r="E90">
-        <v>0.1875585564987402</v>
+        <v>0.005500652170570701</v>
       </c>
       <c r="F90">
-        <v>0.1370620235215539</v>
+        <v>0.004257706646665509</v>
       </c>
       <c r="G90">
-        <v>-0.0927825933914702</v>
+        <v>-0.001218077956445428</v>
       </c>
       <c r="H90">
-        <v>-0.1071277512093984</v>
+        <v>-0.0009517718786456169</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.03970394898281958</v>
+        <v>-0.1830766955003215</v>
       </c>
       <c r="C91">
-        <v>0.06465901157149302</v>
+        <v>0.318561958501041</v>
       </c>
       <c r="D91">
-        <v>0.05860011101149882</v>
+        <v>0.2489833034277826</v>
       </c>
       <c r="E91">
-        <v>0.03811864526285999</v>
+        <v>0.1809339328857959</v>
       </c>
       <c r="F91">
-        <v>0.03679777878154878</v>
+        <v>0.1841229452586876</v>
       </c>
       <c r="G91">
-        <v>-0.0118699033639895</v>
+        <v>-0.08895054043274193</v>
       </c>
       <c r="H91">
-        <v>-0.008372874313792135</v>
+        <v>-0.1125654792673077</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.4081915236410842</v>
+        <v>-0.3525260548741164</v>
       </c>
       <c r="C92">
-        <v>0.8353834650486027</v>
+        <v>0.553680677405975</v>
       </c>
       <c r="D92">
-        <v>0.9394961776447794</v>
+        <v>0.5619821938158169</v>
       </c>
       <c r="E92">
-        <v>0.2161405362687266</v>
+        <v>0.3646013020537387</v>
       </c>
       <c r="F92">
-        <v>0.4825229152922732</v>
+        <v>0.1692733183935326</v>
       </c>
       <c r="G92">
-        <v>-0.8560896901288669</v>
+        <v>-0.2539945789504536</v>
       </c>
       <c r="H92">
-        <v>-0.09390358826311514</v>
+        <v>0.0181645751484316</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.2060695587861167</v>
+        <v>-0.3457848060035032</v>
       </c>
       <c r="C93">
-        <v>0.3047610058323198</v>
+        <v>0.8896347997475846</v>
       </c>
       <c r="D93">
-        <v>0.2949324497049031</v>
+        <v>0.7406058544658137</v>
       </c>
       <c r="E93">
-        <v>0.2246995279782227</v>
+        <v>0.2740627654920064</v>
       </c>
       <c r="F93">
-        <v>0.1404273883105528</v>
+        <v>0.2348090832745695</v>
       </c>
       <c r="G93">
-        <v>-0.08775893698443148</v>
+        <v>-0.7527572713385403</v>
       </c>
       <c r="H93">
-        <v>-0.1171529085366994</v>
+        <v>-0.1067074277524137</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.3685982706605536</v>
+        <v>-0.2343605656818594</v>
       </c>
       <c r="C94">
-        <v>0.5650425051630057</v>
+        <v>0.907865675108121</v>
       </c>
       <c r="D94">
-        <v>0.6130540454882386</v>
+        <v>0.7817617578737287</v>
       </c>
       <c r="E94">
-        <v>0.2757194011439953</v>
+        <v>0.1785561868849303</v>
       </c>
       <c r="F94">
-        <v>0.2641555529994898</v>
+        <v>0.2626228490009765</v>
       </c>
       <c r="G94">
-        <v>-0.2463872682748246</v>
+        <v>-1.008540982758724</v>
       </c>
       <c r="H94">
-        <v>-0.03396479074797112</v>
+        <v>-0.277930259824044</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.5095332947556608</v>
+        <v>-0.004027503856475257</v>
       </c>
       <c r="C95">
-        <v>0.921573032726118</v>
+        <v>0.006613890312102256</v>
       </c>
       <c r="D95">
-        <v>0.6135632329512153</v>
+        <v>0.006386959714626973</v>
       </c>
       <c r="E95">
-        <v>0.3564050888197627</v>
+        <v>0.004309267024044997</v>
       </c>
       <c r="F95">
-        <v>0.2595592971258384</v>
+        <v>0.004046037031009771</v>
       </c>
       <c r="G95">
-        <v>-0.4105775776628409</v>
+        <v>-0.001224164370446565</v>
       </c>
       <c r="H95">
-        <v>-0.1949394481802839</v>
+        <v>-0.001102315406420542</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.3484884511238571</v>
+        <v>-0.003894239040362295</v>
       </c>
       <c r="C96">
-        <v>0.6847448090697722</v>
+        <v>0.00728846836859368</v>
       </c>
       <c r="D96">
-        <v>0.6378121564952552</v>
+        <v>0.005282717596013645</v>
       </c>
       <c r="E96">
-        <v>0.2230283374826714</v>
+        <v>0.0044222514185719</v>
       </c>
       <c r="F96">
-        <v>0.248917509278395</v>
+        <v>0.003791588933593016</v>
       </c>
       <c r="G96">
-        <v>-0.4393321049096407</v>
+        <v>-0.001221874176540086</v>
       </c>
       <c r="H96">
-        <v>-0.2082319864222458</v>
+        <v>-0.001585127716313253</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.1948237511759621</v>
+        <v>-0.2732111112265457</v>
       </c>
       <c r="C97">
-        <v>0.3309639994703576</v>
+        <v>1.020322105913708</v>
       </c>
       <c r="D97">
-        <v>0.27619676102158</v>
+        <v>0.565458878998831</v>
       </c>
       <c r="E97">
-        <v>0.2074296251974659</v>
+        <v>0.1422726566495029</v>
       </c>
       <c r="F97">
-        <v>0.1354064223430585</v>
+        <v>0.1482146886303367</v>
       </c>
       <c r="G97">
-        <v>-0.09490022701873849</v>
+        <v>-0.7838905682978053</v>
       </c>
       <c r="H97">
-        <v>-0.08252385882143425</v>
+        <v>-0.08723639832348926</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.3937579335534295</v>
+        <v>-0.3895548291889214</v>
       </c>
       <c r="C98">
-        <v>1.148080695782085</v>
+        <v>0.837216871654853</v>
       </c>
       <c r="D98">
-        <v>0.7064241933761246</v>
+        <v>0.8887935686065904</v>
       </c>
       <c r="E98">
-        <v>0.2381791403296431</v>
+        <v>0.3303040454542556</v>
       </c>
       <c r="F98">
-        <v>0.04658777435362931</v>
+        <v>0.2120990236214457</v>
       </c>
       <c r="G98">
-        <v>-0.7502414975345231</v>
+        <v>-0.7004528922226787</v>
       </c>
       <c r="H98">
-        <v>-0.1882065313405745</v>
+        <v>-0.5109292877490378</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.2658947231990046</v>
+        <v>-0.004295817292011487</v>
       </c>
       <c r="C99">
-        <v>0.7655046154455654</v>
+        <v>0.006145595628596606</v>
       </c>
       <c r="D99">
-        <v>0.6701227194000537</v>
+        <v>0.007071350207905839</v>
       </c>
       <c r="E99">
-        <v>0.2809075222151786</v>
+        <v>0.004836353766348947</v>
       </c>
       <c r="F99">
-        <v>0.3555477683712538</v>
+        <v>0.003751570091539697</v>
       </c>
       <c r="G99">
-        <v>-0.8277645546801276</v>
+        <v>-0.001221282389080385</v>
       </c>
       <c r="H99">
-        <v>-0.1024877359205613</v>
+        <v>-0.001696545906027813</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.2930328010979171</v>
+        <v>-0.2027888841363202</v>
       </c>
       <c r="C100">
-        <v>0.6653170216686227</v>
+        <v>0.9370036104308145</v>
       </c>
       <c r="D100">
-        <v>0.5764524946836472</v>
+        <v>0.7390093442468689</v>
       </c>
       <c r="E100">
-        <v>0.2054566145407024</v>
+        <v>0.1331475142890307</v>
       </c>
       <c r="F100">
-        <v>0.1583062738781305</v>
+        <v>0.2125023080644046</v>
       </c>
       <c r="G100">
-        <v>-0.3531812549356635</v>
+        <v>-0.9894390200107595</v>
       </c>
       <c r="H100">
-        <v>-0.2145346128599946</v>
+        <v>-0.2973103696499435</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.3801096842714156</v>
+        <v>-0.4162474771359906</v>
       </c>
       <c r="C101">
-        <v>1.076300329316995</v>
+        <v>0.7063861214403915</v>
       </c>
       <c r="D101">
-        <v>0.7658825350750605</v>
+        <v>0.6855065322949244</v>
       </c>
       <c r="E101">
-        <v>0.2381406850235988</v>
+        <v>0.2296848820897961</v>
       </c>
       <c r="F101">
-        <v>0.04117425164591763</v>
+        <v>0.1897634195666757</v>
       </c>
       <c r="G101">
-        <v>-0.859492976186105</v>
+        <v>-0.2972110414227408</v>
       </c>
       <c r="H101">
-        <v>-0.23512108795117</v>
+        <v>-0.2668095998168025</v>
       </c>
     </row>
   </sheetData>

--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM+Dem.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.2615661649398635</v>
+        <v>-0.005015809992447402</v>
       </c>
       <c r="C2">
-        <v>0.7647627045405385</v>
+        <v>0.00692425654732113</v>
       </c>
       <c r="D2">
-        <v>0.6545540801871707</v>
+        <v>0.007385389851554832</v>
       </c>
       <c r="E2">
-        <v>0.284611343811651</v>
+        <v>0.00492282695660363</v>
       </c>
       <c r="F2">
-        <v>0.2734100433764151</v>
+        <v>0.004508760526789864</v>
       </c>
       <c r="G2">
-        <v>-0.7553526270830637</v>
+        <v>-0.002931263717095159</v>
       </c>
       <c r="H2">
-        <v>-0.2273196904843579</v>
+        <v>-0.001770023412725569</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.2661250482073181</v>
+        <v>-0.005224390443233784</v>
       </c>
       <c r="C3">
-        <v>0.7856902125230838</v>
+        <v>0.007095742391698782</v>
       </c>
       <c r="D3">
-        <v>0.8477213375072158</v>
+        <v>0.007283012590499066</v>
       </c>
       <c r="E3">
-        <v>0.04398434352300332</v>
+        <v>0.005548596552787667</v>
       </c>
       <c r="F3">
-        <v>0.3975537985696505</v>
+        <v>0.00431611485987289</v>
       </c>
       <c r="G3">
-        <v>-0.8820630751591619</v>
+        <v>-0.002937654269670838</v>
       </c>
       <c r="H3">
-        <v>-0.1962449688161954</v>
+        <v>-0.001990972194646134</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.2792402246578833</v>
+        <v>-0.4789674456739288</v>
       </c>
       <c r="C4">
-        <v>0.6428156573101407</v>
+        <v>0.6774166800340519</v>
       </c>
       <c r="D4">
-        <v>0.4476084025352228</v>
+        <v>0.5988632066068765</v>
       </c>
       <c r="E4">
-        <v>0.2438962926335529</v>
+        <v>0.2482800915249244</v>
       </c>
       <c r="F4">
-        <v>0.1900311169161095</v>
+        <v>0.3603726691039645</v>
       </c>
       <c r="G4">
-        <v>-0.3121890608012581</v>
+        <v>-0.273687678704149</v>
       </c>
       <c r="H4">
-        <v>-0.185891167681184</v>
+        <v>-0.1310493429485397</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.2159353738345184</v>
+        <v>-0.5699971441498604</v>
       </c>
       <c r="C5">
-        <v>0.7097681653709845</v>
+        <v>0.6444582620490252</v>
       </c>
       <c r="D5">
-        <v>0.6233085950856233</v>
+        <v>0.7328329342218438</v>
       </c>
       <c r="E5">
-        <v>0.2103642430628599</v>
+        <v>0.2451226452013618</v>
       </c>
       <c r="F5">
-        <v>0.29326932275673</v>
+        <v>0.3358462772245934</v>
       </c>
       <c r="G5">
-        <v>-0.704834563828185</v>
+        <v>-0.3031387319008441</v>
       </c>
       <c r="H5">
-        <v>-0.2377662376986518</v>
+        <v>-0.1453993944598504</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.228502163490607</v>
+        <v>-0.213532229803488</v>
       </c>
       <c r="C6">
-        <v>0.9077274143256205</v>
+        <v>0.2950249441614868</v>
       </c>
       <c r="D6">
-        <v>0.7145165029292675</v>
+        <v>0.3117886042955109</v>
       </c>
       <c r="E6">
-        <v>0.1633478070002564</v>
+        <v>0.2131580541765585</v>
       </c>
       <c r="F6">
-        <v>0.05503062037641385</v>
+        <v>0.124035212155656</v>
       </c>
       <c r="G6">
-        <v>-0.8260170200955822</v>
+        <v>-0.1440136393801268</v>
       </c>
       <c r="H6">
-        <v>-0.2315941125048565</v>
+        <v>-0.09838201127077031</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.1834134451199309</v>
+        <v>-0.4827124373726486</v>
       </c>
       <c r="C7">
-        <v>0.2863113054870959</v>
+        <v>0.8183259827267247</v>
       </c>
       <c r="D7">
-        <v>0.2949205772820949</v>
+        <v>0.4862821873314416</v>
       </c>
       <c r="E7">
-        <v>0.2204762884105685</v>
+        <v>0.3963095886096211</v>
       </c>
       <c r="F7">
-        <v>0.1214399947475087</v>
+        <v>0.2322074120727232</v>
       </c>
       <c r="G7">
-        <v>-0.09353284463495917</v>
+        <v>-0.3625217769042286</v>
       </c>
       <c r="H7">
-        <v>-0.1031063835672729</v>
+        <v>-0.06277784247130021</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.375786000179474</v>
+        <v>-0.5878997836144636</v>
       </c>
       <c r="C8">
-        <v>0.8184771946390893</v>
+        <v>0.5836805821920298</v>
       </c>
       <c r="D8">
-        <v>0.8913192634321551</v>
+        <v>0.7790903539557165</v>
       </c>
       <c r="E8">
-        <v>0.2760947830470588</v>
+        <v>0.4594836768213521</v>
       </c>
       <c r="F8">
-        <v>0.3050272622825083</v>
+        <v>0.4686467663452365</v>
       </c>
       <c r="G8">
-        <v>-0.8188228867573574</v>
+        <v>-0.3710745467740446</v>
       </c>
       <c r="H8">
-        <v>-0.3493759187692995</v>
+        <v>-0.2352337886105045</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.5303888013076471</v>
+        <v>-0.4401672450353664</v>
       </c>
       <c r="C9">
-        <v>1.154950565721165</v>
+        <v>0.5522371548820376</v>
       </c>
       <c r="D9">
-        <v>0.8454857257110312</v>
+        <v>0.6657696207241791</v>
       </c>
       <c r="E9">
-        <v>0.2967556231702149</v>
+        <v>0.3038529632337912</v>
       </c>
       <c r="F9">
-        <v>0.4227519763947106</v>
+        <v>0.3013288397542788</v>
       </c>
       <c r="G9">
-        <v>-1.005528217684292</v>
+        <v>-0.2505595486726299</v>
       </c>
       <c r="H9">
-        <v>-0.1568165851705396</v>
+        <v>-0.2240212692817793</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.3995683523643085</v>
+        <v>-0.005781908709444862</v>
       </c>
       <c r="C10">
-        <v>0.781218772567822</v>
+        <v>0.008371359441103921</v>
       </c>
       <c r="D10">
-        <v>0.5838499535356411</v>
+        <v>0.006316448506283786</v>
       </c>
       <c r="E10">
-        <v>0.2806396706495641</v>
+        <v>0.006315237321654769</v>
       </c>
       <c r="F10">
-        <v>0.1665448821482058</v>
+        <v>0.004491238565801063</v>
       </c>
       <c r="G10">
-        <v>-0.3686289094227816</v>
+        <v>-0.00293130971433373</v>
       </c>
       <c r="H10">
-        <v>-0.350753557787469</v>
+        <v>-0.00201632942096746</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.323860957582952</v>
+        <v>-0.2971520855232097</v>
       </c>
       <c r="C11">
-        <v>1.01444859405769</v>
+        <v>0.3655968679185442</v>
       </c>
       <c r="D11">
-        <v>0.5591118583254997</v>
+        <v>0.3524342188344176</v>
       </c>
       <c r="E11">
-        <v>0.2463333401165693</v>
+        <v>0.1904619669992273</v>
       </c>
       <c r="F11">
-        <v>0.1117435987606126</v>
+        <v>0.2202769390954787</v>
       </c>
       <c r="G11">
-        <v>-0.7020718036128947</v>
+        <v>-0.1430288174590358</v>
       </c>
       <c r="H11">
-        <v>-0.16863105258007</v>
+        <v>-0.1242801807856854</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.1691698281327643</v>
+        <v>-0.2535808363097962</v>
       </c>
       <c r="C12">
-        <v>0.3337326676180226</v>
+        <v>0.323730919149504</v>
       </c>
       <c r="D12">
-        <v>0.2662128543203627</v>
+        <v>0.3298888995446518</v>
       </c>
       <c r="E12">
-        <v>0.1570987818207114</v>
+        <v>0.227413261975425</v>
       </c>
       <c r="F12">
-        <v>0.1372016801568261</v>
+        <v>0.1621141748945819</v>
       </c>
       <c r="G12">
-        <v>-0.09066821284064283</v>
+        <v>-0.1598607608386678</v>
       </c>
       <c r="H12">
-        <v>-0.1018953650493185</v>
+        <v>-0.1198862244508754</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.2102950791662355</v>
+        <v>-0.005761061410266143</v>
       </c>
       <c r="C13">
-        <v>0.3250187378380751</v>
+        <v>0.008200713244819564</v>
       </c>
       <c r="D13">
-        <v>0.2897922034700037</v>
+        <v>0.006593919922023093</v>
       </c>
       <c r="E13">
-        <v>0.2366829820965463</v>
+        <v>0.005829156290162642</v>
       </c>
       <c r="F13">
-        <v>0.09383972838346799</v>
+        <v>0.005222740057207009</v>
       </c>
       <c r="G13">
-        <v>-0.075419105548007</v>
+        <v>-0.002929530267075215</v>
       </c>
       <c r="H13">
-        <v>-0.09039971711967014</v>
+        <v>-0.001295881570227271</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.005471268544832121</v>
+        <v>-0.2741635450893273</v>
       </c>
       <c r="C14">
-        <v>0.007599567621082837</v>
+        <v>0.3678092727908506</v>
       </c>
       <c r="D14">
-        <v>0.007237107823263554</v>
+        <v>0.2977802610879758</v>
       </c>
       <c r="E14">
-        <v>0.005208684471632394</v>
+        <v>0.2157858566909054</v>
       </c>
       <c r="F14">
-        <v>0.004834955415365269</v>
+        <v>0.2176107254692239</v>
       </c>
       <c r="G14">
-        <v>-0.001216326166104888</v>
+        <v>-0.1457626736141534</v>
       </c>
       <c r="H14">
-        <v>-0.000498240047431169</v>
+        <v>-0.06605349356649021</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.00462769874954659</v>
+        <v>-0.006069597537965842</v>
       </c>
       <c r="C15">
-        <v>0.007351943532941611</v>
+        <v>0.006920912425974781</v>
       </c>
       <c r="D15">
-        <v>0.006503540567020395</v>
+        <v>0.008273090616408194</v>
       </c>
       <c r="E15">
-        <v>0.004940893812846707</v>
+        <v>0.006458771776542788</v>
       </c>
       <c r="F15">
-        <v>0.004072827000417536</v>
+        <v>0.005047321605157331</v>
       </c>
       <c r="G15">
-        <v>-0.001219425528660961</v>
+        <v>-0.002934754313632086</v>
       </c>
       <c r="H15">
-        <v>-0.0004197173606645419</v>
+        <v>2.137163736860268E-05</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.3697189489949996</v>
+        <v>-0.0448470891824777</v>
       </c>
       <c r="C16">
-        <v>0.6279751864450149</v>
+        <v>0.06016188142235553</v>
       </c>
       <c r="D16">
-        <v>0.5306634286682631</v>
+        <v>0.06750389786013179</v>
       </c>
       <c r="E16">
-        <v>0.3095432317806442</v>
+        <v>0.04651772201924879</v>
       </c>
       <c r="F16">
-        <v>0.3397714037756255</v>
+        <v>0.03270177662356755</v>
       </c>
       <c r="G16">
-        <v>-0.333013464278487</v>
+        <v>-0.02625768236139481</v>
       </c>
       <c r="H16">
-        <v>-0.008726034339904166</v>
+        <v>-0.01720997675001678</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.2729245860000773</v>
+        <v>-0.4440741947966315</v>
       </c>
       <c r="C17">
-        <v>0.8585040117412496</v>
+        <v>0.7027948557588765</v>
       </c>
       <c r="D17">
-        <v>0.6264261892504865</v>
+        <v>0.5081332862333164</v>
       </c>
       <c r="E17">
-        <v>0.2929567413757758</v>
+        <v>0.2984517135141964</v>
       </c>
       <c r="F17">
-        <v>0.124434460554695</v>
+        <v>0.1973342446922999</v>
       </c>
       <c r="G17">
-        <v>-0.7451973889243811</v>
+        <v>-0.2755387472480934</v>
       </c>
       <c r="H17">
-        <v>-0.4637822790401602</v>
+        <v>-0.1787486887211257</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.3031391291107137</v>
+        <v>-0.4841248226056798</v>
       </c>
       <c r="C18">
-        <v>0.8097511491314173</v>
+        <v>0.5906521513966226</v>
       </c>
       <c r="D18">
-        <v>0.6989059004513321</v>
+        <v>0.7319042122145328</v>
       </c>
       <c r="E18">
-        <v>0.4620638440865117</v>
+        <v>0.1964195398823433</v>
       </c>
       <c r="F18">
-        <v>0.01278802738395598</v>
+        <v>0.3892060093256842</v>
       </c>
       <c r="G18">
-        <v>-0.707018164212072</v>
+        <v>-0.3534510012475305</v>
       </c>
       <c r="H18">
-        <v>-0.3203904063597708</v>
+        <v>-0.08233439562853777</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.2295361101985153</v>
+        <v>-0.5976355451050495</v>
       </c>
       <c r="C19">
-        <v>0.776784299572248</v>
+        <v>0.8895266512596621</v>
       </c>
       <c r="D19">
-        <v>0.6999754088670136</v>
+        <v>0.8045541827627566</v>
       </c>
       <c r="E19">
-        <v>0.3260317122066455</v>
+        <v>0.2602374040546898</v>
       </c>
       <c r="F19">
-        <v>0.144310177735177</v>
+        <v>0.2732563599557212</v>
       </c>
       <c r="G19">
-        <v>-0.8735192814775203</v>
+        <v>-0.4128930719855265</v>
       </c>
       <c r="H19">
-        <v>-0.2612088885993193</v>
+        <v>-0.1776063335184283</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.004398952293020526</v>
+        <v>-0.005308850263910397</v>
       </c>
       <c r="C20">
-        <v>0.006756756764998419</v>
+        <v>0.006679254244809418</v>
       </c>
       <c r="D20">
-        <v>0.006750908311127918</v>
+        <v>0.007462043908209543</v>
       </c>
       <c r="E20">
-        <v>0.00511464133221942</v>
+        <v>0.005694039348730985</v>
       </c>
       <c r="F20">
-        <v>0.003554202523493676</v>
+        <v>0.00507821424767893</v>
       </c>
       <c r="G20">
-        <v>-0.001219267173795125</v>
+        <v>-0.002935320593359819</v>
       </c>
       <c r="H20">
-        <v>-0.0009855565860717719</v>
+        <v>-0.0008959710510247868</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.005208590667749673</v>
+        <v>-0.005378429529100275</v>
       </c>
       <c r="C21">
-        <v>0.007746299882725781</v>
+        <v>0.008122506721236693</v>
       </c>
       <c r="D21">
-        <v>0.006644144502195739</v>
+        <v>0.00717428543455126</v>
       </c>
       <c r="E21">
-        <v>0.005059356681184427</v>
+        <v>0.005032286750846464</v>
       </c>
       <c r="F21">
-        <v>0.004862233638311328</v>
+        <v>0.004119422046220404</v>
       </c>
       <c r="G21">
-        <v>-0.001217889837461291</v>
+        <v>-0.002936364959126225</v>
       </c>
       <c r="H21">
-        <v>-0.0004572382950559313</v>
+        <v>-0.001362214200392598</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.3217265822806043</v>
+        <v>-0.005972191574060085</v>
       </c>
       <c r="C22">
-        <v>1.060349275921838</v>
+        <v>0.00730842859111928</v>
       </c>
       <c r="D22">
-        <v>0.6740416594510656</v>
+        <v>0.008014437759864934</v>
       </c>
       <c r="E22">
-        <v>0.3997939738960371</v>
+        <v>0.006666586479304237</v>
       </c>
       <c r="F22">
-        <v>-0.06817114251666968</v>
+        <v>0.004244467683708958</v>
       </c>
       <c r="G22">
-        <v>-0.9123468652592687</v>
+        <v>-0.002924425772211326</v>
       </c>
       <c r="H22">
-        <v>-0.3913624329253301</v>
+        <v>-0.0004159068858750372</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.2858272911399004</v>
+        <v>-0.6186320360687656</v>
       </c>
       <c r="C23">
-        <v>0.6941843747505315</v>
+        <v>1.079198136264353</v>
       </c>
       <c r="D23">
-        <v>0.5605428117679018</v>
+        <v>0.5923495455489464</v>
       </c>
       <c r="E23">
-        <v>0.1554450263973581</v>
+        <v>0.3662994406790724</v>
       </c>
       <c r="F23">
-        <v>0.1699677196103308</v>
+        <v>0.2842369885033018</v>
       </c>
       <c r="G23">
-        <v>-0.3639979804814457</v>
+        <v>-0.402072902794831</v>
       </c>
       <c r="H23">
-        <v>-0.2493465178793237</v>
+        <v>-0.01565375745961369</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.5151203912985208</v>
+        <v>-0.6066605137259727</v>
       </c>
       <c r="C24">
-        <v>1.145284042622114</v>
+        <v>0.9210353063208959</v>
       </c>
       <c r="D24">
-        <v>0.6790232113509354</v>
+        <v>0.9045574666103827</v>
       </c>
       <c r="E24">
-        <v>0.3189240536193945</v>
+        <v>0.1589386997545497</v>
       </c>
       <c r="F24">
-        <v>0.2034943858727</v>
+        <v>0.2055459670480351</v>
       </c>
       <c r="G24">
-        <v>-0.7199933580460036</v>
+        <v>-0.3810699196179295</v>
       </c>
       <c r="H24">
-        <v>-0.3488541017801596</v>
+        <v>-0.3281546222732165</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.2674432329195627</v>
+        <v>-0.4163279674517225</v>
       </c>
       <c r="C25">
-        <v>0.6333452232158212</v>
+        <v>0.4535979725861424</v>
       </c>
       <c r="D25">
-        <v>0.4564683044671167</v>
+        <v>0.5596587816713275</v>
       </c>
       <c r="E25">
-        <v>0.194927426692759</v>
+        <v>0.3280620082113778</v>
       </c>
       <c r="F25">
-        <v>0.1466713241366166</v>
+        <v>0.2908466323286187</v>
       </c>
       <c r="G25">
-        <v>-0.3025952774218666</v>
+        <v>-0.2749747483321373</v>
       </c>
       <c r="H25">
-        <v>-0.2002657435023622</v>
+        <v>-0.2392685711880515</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.3648451632776765</v>
+        <v>-0.005586221730367659</v>
       </c>
       <c r="C26">
-        <v>0.73763894468497</v>
+        <v>0.007661346478433643</v>
       </c>
       <c r="D26">
-        <v>0.567018939190976</v>
+        <v>0.006825557285165501</v>
       </c>
       <c r="E26">
-        <v>0.223614233905487</v>
+        <v>0.006184098179116136</v>
       </c>
       <c r="F26">
-        <v>0.1908978750978543</v>
+        <v>0.004917278980652372</v>
       </c>
       <c r="G26">
-        <v>-0.3210769492949532</v>
+        <v>-0.002936082639757922</v>
       </c>
       <c r="H26">
-        <v>-0.1012397276240454</v>
+        <v>-0.0005310752085973596</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.03853505840863784</v>
+        <v>-0.0486333518002317</v>
       </c>
       <c r="C27">
-        <v>0.06256068537282738</v>
+        <v>0.07303990630020561</v>
       </c>
       <c r="D27">
-        <v>0.05458002694935336</v>
+        <v>0.05899770177173108</v>
       </c>
       <c r="E27">
-        <v>0.04109663915494072</v>
+        <v>0.04377002619436486</v>
       </c>
       <c r="F27">
-        <v>0.0381632412172529</v>
+        <v>0.04471634477479862</v>
       </c>
       <c r="G27">
-        <v>-0.01170140347113242</v>
+        <v>-0.02685759284915572</v>
       </c>
       <c r="H27">
-        <v>-0.01139903513520689</v>
+        <v>-0.004171394903221531</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.2086759212312899</v>
+        <v>-0.4395119097539971</v>
       </c>
       <c r="C28">
-        <v>0.3237573673218318</v>
+        <v>0.5876972932125702</v>
       </c>
       <c r="D28">
-        <v>0.2901038838039373</v>
+        <v>0.5711389334412662</v>
       </c>
       <c r="E28">
-        <v>0.224760624092742</v>
+        <v>0.1951382573988038</v>
       </c>
       <c r="F28">
-        <v>0.1271849101397492</v>
+        <v>0.39089174635675</v>
       </c>
       <c r="G28">
-        <v>-0.0939530713090147</v>
+        <v>-0.3544278198839674</v>
       </c>
       <c r="H28">
-        <v>-0.148419352327805</v>
+        <v>-0.1353919173140737</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.2601965573672492</v>
+        <v>-0.4243857806997322</v>
       </c>
       <c r="C29">
-        <v>1.001695139738251</v>
+        <v>0.5496398230041519</v>
       </c>
       <c r="D29">
-        <v>0.6612057855942646</v>
+        <v>0.6569983547441501</v>
       </c>
       <c r="E29">
-        <v>0.1858015309028337</v>
+        <v>0.1349033629627467</v>
       </c>
       <c r="F29">
-        <v>-0.006564320615450238</v>
+        <v>0.2958086136868099</v>
       </c>
       <c r="G29">
-        <v>-0.8103069418234783</v>
+        <v>-0.3136347988627896</v>
       </c>
       <c r="H29">
-        <v>-0.2477153573132661</v>
+        <v>-0.1688163562081628</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.3234095729560351</v>
+        <v>-0.05032031974012312</v>
       </c>
       <c r="C30">
-        <v>0.8535965266546335</v>
+        <v>0.0668571390736918</v>
       </c>
       <c r="D30">
-        <v>0.8837348736998691</v>
+        <v>0.06519044914160199</v>
       </c>
       <c r="E30">
-        <v>0.1180055842601785</v>
+        <v>0.05210560934355779</v>
       </c>
       <c r="F30">
-        <v>0.2776520212313463</v>
+        <v>0.03931120350425255</v>
       </c>
       <c r="G30">
-        <v>-0.9593184780950261</v>
+        <v>-0.02556890840639024</v>
       </c>
       <c r="H30">
-        <v>-0.1906898927211171</v>
+        <v>-0.01252699997958356</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.2850019231486138</v>
+        <v>-0.005313788247937731</v>
       </c>
       <c r="C31">
-        <v>0.8784959761666741</v>
+        <v>0.006940614236697899</v>
       </c>
       <c r="D31">
-        <v>0.8107226830657918</v>
+        <v>0.007565719263617136</v>
       </c>
       <c r="E31">
-        <v>0.1967185338175932</v>
+        <v>0.00555850527763943</v>
       </c>
       <c r="F31">
-        <v>0.2146119849009723</v>
+        <v>0.004789282415879582</v>
       </c>
       <c r="G31">
-        <v>-0.915609651907426</v>
+        <v>-0.002926730461304592</v>
       </c>
       <c r="H31">
-        <v>-0.2143930808910142</v>
+        <v>0.0001141470492485513</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.242489491943269</v>
+        <v>-0.6928498580845158</v>
       </c>
       <c r="C32">
-        <v>0.9493049767565117</v>
+        <v>1.243911785213533</v>
       </c>
       <c r="D32">
-        <v>0.7614824963593307</v>
+        <v>0.6478873969375335</v>
       </c>
       <c r="E32">
-        <v>0.1091001994804916</v>
+        <v>0.3033913359119553</v>
       </c>
       <c r="F32">
-        <v>0.3157434982101718</v>
+        <v>-0.002868166257887256</v>
       </c>
       <c r="G32">
-        <v>-1.017525458994982</v>
+        <v>-0.4307422851956659</v>
       </c>
       <c r="H32">
-        <v>-0.1819221995723319</v>
+        <v>-0.2270097543229996</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.2707295153481664</v>
+        <v>-0.5187963126571845</v>
       </c>
       <c r="C33">
-        <v>0.8910930419713688</v>
+        <v>0.7636730871891941</v>
       </c>
       <c r="D33">
-        <v>0.8518716256252142</v>
+        <v>0.6987810591473305</v>
       </c>
       <c r="E33">
-        <v>0.3034220173869104</v>
+        <v>0.4195419143931188</v>
       </c>
       <c r="F33">
-        <v>-0.06228421611306607</v>
+        <v>0.1754247982093667</v>
       </c>
       <c r="G33">
-        <v>-0.9458837639925621</v>
+        <v>-0.2856123076745584</v>
       </c>
       <c r="H33">
-        <v>-0.3175008835390213</v>
+        <v>-0.2883421507121818</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.3700305946960209</v>
+        <v>-0.5180185082272464</v>
       </c>
       <c r="C34">
-        <v>0.5561246580863648</v>
+        <v>0.6488002052228046</v>
       </c>
       <c r="D34">
-        <v>0.7237176480127272</v>
+        <v>0.6277447915176345</v>
       </c>
       <c r="E34">
-        <v>0.2788120507348962</v>
+        <v>0.3630472302731381</v>
       </c>
       <c r="F34">
-        <v>0.2506023570656915</v>
+        <v>0.316353415052282</v>
       </c>
       <c r="G34">
-        <v>-0.337769534749547</v>
+        <v>-0.3085111844742272</v>
       </c>
       <c r="H34">
-        <v>-0.146220455162849</v>
+        <v>-0.24464848724266</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.03992020353642529</v>
+        <v>-0.4247633132044341</v>
       </c>
       <c r="C35">
-        <v>0.06122661950453152</v>
+        <v>0.7010466278760278</v>
       </c>
       <c r="D35">
-        <v>0.06405564521552147</v>
+        <v>0.613212865674495</v>
       </c>
       <c r="E35">
-        <v>0.04003130066674093</v>
+        <v>0.2639569248605192</v>
       </c>
       <c r="F35">
-        <v>0.02960587159855309</v>
+        <v>0.08900935752264191</v>
       </c>
       <c r="G35">
-        <v>-0.01149013006853682</v>
+        <v>-0.3319337772785156</v>
       </c>
       <c r="H35">
-        <v>-0.01239767085608663</v>
+        <v>-0.2323152256114584</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.345279524490248</v>
+        <v>-0.5621123289308845</v>
       </c>
       <c r="C36">
-        <v>1.100099548955596</v>
+        <v>0.8936795524036008</v>
       </c>
       <c r="D36">
-        <v>0.7266239842002403</v>
+        <v>0.5357682827184725</v>
       </c>
       <c r="E36">
-        <v>0.1881726786929885</v>
+        <v>0.4030970961631652</v>
       </c>
       <c r="F36">
-        <v>0.05855496728919089</v>
+        <v>0.2856718531508158</v>
       </c>
       <c r="G36">
-        <v>-0.8636845931089225</v>
+        <v>-0.3988693729997098</v>
       </c>
       <c r="H36">
-        <v>-0.2469772134792879</v>
+        <v>-0.1702830945625325</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.2157460531098657</v>
+        <v>-0.4654265817876094</v>
       </c>
       <c r="C37">
-        <v>0.9575680237381738</v>
+        <v>0.5854993882758682</v>
       </c>
       <c r="D37">
-        <v>0.6514291142006162</v>
+        <v>0.5798500164418716</v>
       </c>
       <c r="E37">
-        <v>0.2338933866148009</v>
+        <v>0.2433730938209006</v>
       </c>
       <c r="F37">
-        <v>0.03129526883198046</v>
+        <v>0.3769757013587033</v>
       </c>
       <c r="G37">
-        <v>-0.9441764565786364</v>
+        <v>-0.2904484398708765</v>
       </c>
       <c r="H37">
-        <v>-0.253561465187504</v>
+        <v>-0.113102990598791</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.4469290764213864</v>
+        <v>-0.541238606835475</v>
       </c>
       <c r="C38">
-        <v>0.8654479468965475</v>
+        <v>0.852710762223379</v>
       </c>
       <c r="D38">
-        <v>0.9397254003347516</v>
+        <v>0.623829731126624</v>
       </c>
       <c r="E38">
-        <v>0.2738974850432748</v>
+        <v>0.4206222127975159</v>
       </c>
       <c r="F38">
-        <v>0.2011897138892896</v>
+        <v>0.1487816218930468</v>
       </c>
       <c r="G38">
-        <v>-0.6246862449703711</v>
+        <v>-0.3638432256718461</v>
       </c>
       <c r="H38">
-        <v>-0.3481321064254752</v>
+        <v>-0.1363143178536076</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.2752510305514062</v>
+        <v>-0.005450364085662045</v>
       </c>
       <c r="C39">
-        <v>0.8341266600124233</v>
+        <v>0.006572149383727827</v>
       </c>
       <c r="D39">
-        <v>0.5777465138554903</v>
+        <v>0.007595876876543953</v>
       </c>
       <c r="E39">
-        <v>0.3248341389294587</v>
+        <v>0.006026290104212046</v>
       </c>
       <c r="F39">
-        <v>0.2852242318910602</v>
+        <v>0.004987962677452673</v>
       </c>
       <c r="G39">
-        <v>-0.707073012155774</v>
+        <v>-0.002934328786298984</v>
       </c>
       <c r="H39">
-        <v>-0.07340449689347049</v>
+        <v>-0.00127125986623139</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.2064283265077958</v>
+        <v>-0.5644416608780513</v>
       </c>
       <c r="C40">
-        <v>0.3513577311444145</v>
+        <v>0.5801627721659263</v>
       </c>
       <c r="D40">
-        <v>0.278076821169473</v>
+        <v>0.7101284218450274</v>
       </c>
       <c r="E40">
-        <v>0.1763098953779464</v>
+        <v>0.4320163128541432</v>
       </c>
       <c r="F40">
-        <v>0.143636746523948</v>
+        <v>0.4641552362964511</v>
       </c>
       <c r="G40">
-        <v>-0.08693289096995892</v>
+        <v>-0.2816309508584092</v>
       </c>
       <c r="H40">
-        <v>-0.07457790286969225</v>
+        <v>-0.2666486799936751</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.2485297994533619</v>
+        <v>-0.2171488671469303</v>
       </c>
       <c r="C41">
-        <v>0.5734914908712793</v>
+        <v>0.3005224296755135</v>
       </c>
       <c r="D41">
-        <v>0.4974218392599561</v>
+        <v>0.3019949388757706</v>
       </c>
       <c r="E41">
-        <v>0.3515110605841784</v>
+        <v>0.2255921310227976</v>
       </c>
       <c r="F41">
-        <v>0.2534224924656036</v>
+        <v>0.1628963870989632</v>
       </c>
       <c r="G41">
-        <v>-0.5024565384132627</v>
+        <v>-0.1333972789857912</v>
       </c>
       <c r="H41">
-        <v>-0.1905381793266631</v>
+        <v>-0.1048304898095083</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.3519228480645667</v>
+        <v>-0.4641115333240134</v>
       </c>
       <c r="C42">
-        <v>0.8580678060796542</v>
+        <v>0.5996055037916058</v>
       </c>
       <c r="D42">
-        <v>0.7692836075356355</v>
+        <v>0.5476140040915394</v>
       </c>
       <c r="E42">
-        <v>0.2144111285735091</v>
+        <v>0.2929052895881059</v>
       </c>
       <c r="F42">
-        <v>0.1179678826042438</v>
+        <v>0.3623498567102324</v>
       </c>
       <c r="G42">
-        <v>-0.5768653700350435</v>
+        <v>-0.2921574206726725</v>
       </c>
       <c r="H42">
-        <v>-0.2426310451514459</v>
+        <v>-0.08593285211232439</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.3065096222479366</v>
+        <v>-0.005792451906958031</v>
       </c>
       <c r="C43">
-        <v>0.6086453674306259</v>
+        <v>0.008317509994741349</v>
       </c>
       <c r="D43">
-        <v>0.5060062507491753</v>
+        <v>0.007182203720925991</v>
       </c>
       <c r="E43">
-        <v>0.2338093136222278</v>
+        <v>0.005146788042834966</v>
       </c>
       <c r="F43">
-        <v>0.196556487808067</v>
+        <v>0.005124382448985876</v>
       </c>
       <c r="G43">
-        <v>-0.2856918015945111</v>
+        <v>-0.002933188224363423</v>
       </c>
       <c r="H43">
-        <v>-0.07618350080964519</v>
+        <v>-0.001024648664932002</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.3198793495046397</v>
+        <v>-0.005009005701741807</v>
       </c>
       <c r="C44">
-        <v>0.5999648567176346</v>
+        <v>0.00750789210762403</v>
       </c>
       <c r="D44">
-        <v>0.4781974951916543</v>
+        <v>0.006120190269418717</v>
       </c>
       <c r="E44">
-        <v>0.2620619151200906</v>
+        <v>0.005601237775027343</v>
       </c>
       <c r="F44">
-        <v>0.2747409951983872</v>
+        <v>0.004273609772362351</v>
       </c>
       <c r="G44">
-        <v>-0.2866113974086112</v>
+        <v>-0.00293061137603862</v>
       </c>
       <c r="H44">
-        <v>-0.1760163452463009</v>
+        <v>-0.002530068294896614</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.4781039621396069</v>
+        <v>-0.04603166751285986</v>
       </c>
       <c r="C45">
-        <v>1.254343721732897</v>
+        <v>0.06443809677489971</v>
       </c>
       <c r="D45">
-        <v>1.057063258939474</v>
+        <v>0.06197017398289779</v>
       </c>
       <c r="E45">
-        <v>-0.05538379306554232</v>
+        <v>0.05075967050524847</v>
       </c>
       <c r="F45">
-        <v>0.3390333197256844</v>
+        <v>0.03679825604344978</v>
       </c>
       <c r="G45">
-        <v>-1.211876441233287</v>
+        <v>-0.02620186828763829</v>
       </c>
       <c r="H45">
-        <v>-0.3651184756407972</v>
+        <v>-0.009427028950722782</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.3083638273358732</v>
+        <v>-0.004847163369881383</v>
       </c>
       <c r="C46">
-        <v>0.8403828908536678</v>
+        <v>0.007518618535243942</v>
       </c>
       <c r="D46">
-        <v>0.693999165967779</v>
+        <v>0.006928554819955581</v>
       </c>
       <c r="E46">
-        <v>0.3284471091151657</v>
+        <v>0.004509729246843544</v>
       </c>
       <c r="F46">
-        <v>0.2494126813847032</v>
+        <v>0.004314636752283691</v>
       </c>
       <c r="G46">
-        <v>-0.8565012505655182</v>
+        <v>-0.002937725718308993</v>
       </c>
       <c r="H46">
-        <v>-0.3840217890272082</v>
+        <v>-0.001151274975416454</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.3579721590734122</v>
+        <v>-0.005567023386137429</v>
       </c>
       <c r="C47">
-        <v>0.8316978830754163</v>
+        <v>0.007976632690546369</v>
       </c>
       <c r="D47">
-        <v>0.7027689719811058</v>
+        <v>0.007636625647369493</v>
       </c>
       <c r="E47">
-        <v>0.1762210087765161</v>
+        <v>0.005250250129913435</v>
       </c>
       <c r="F47">
-        <v>0.3136178442558181</v>
+        <v>0.004229647751425939</v>
       </c>
       <c r="G47">
-        <v>-0.5810946026774362</v>
+        <v>-0.002939323746310684</v>
       </c>
       <c r="H47">
-        <v>-0.2757694034485378</v>
+        <v>-0.0001156302339291779</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.4052268484317044</v>
+        <v>-0.4509841480924645</v>
       </c>
       <c r="C48">
-        <v>0.8553558462912357</v>
+        <v>0.6881669886001659</v>
       </c>
       <c r="D48">
-        <v>0.9561147315398975</v>
+        <v>0.619345686890405</v>
       </c>
       <c r="E48">
-        <v>0.2916139504397416</v>
+        <v>0.3208172990961164</v>
       </c>
       <c r="F48">
-        <v>0.2383229599341097</v>
+        <v>0.2263025177770601</v>
       </c>
       <c r="G48">
-        <v>-0.8768152244176965</v>
+        <v>-0.3189710647476166</v>
       </c>
       <c r="H48">
-        <v>-0.3161206082462825</v>
+        <v>-0.2922941044077793</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.5149585085839938</v>
+        <v>-0.4916280086869963</v>
       </c>
       <c r="C49">
-        <v>0.809958285787992</v>
+        <v>0.6150987597588794</v>
       </c>
       <c r="D49">
-        <v>0.9119827990144995</v>
+        <v>0.5071865929473816</v>
       </c>
       <c r="E49">
-        <v>0.3659297117457606</v>
+        <v>0.402655350430462</v>
       </c>
       <c r="F49">
-        <v>0.2233619696472166</v>
+        <v>0.3685777325155242</v>
       </c>
       <c r="G49">
-        <v>-0.5673094992316309</v>
+        <v>-0.2644215438876584</v>
       </c>
       <c r="H49">
-        <v>-0.3469295436077692</v>
+        <v>-0.3071204256624514</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.2149233221037709</v>
+        <v>-0.004906714053207274</v>
       </c>
       <c r="C50">
-        <v>0.5702282050411108</v>
+        <v>0.00721585977417465</v>
       </c>
       <c r="D50">
-        <v>0.8328252994312462</v>
+        <v>0.006770947403199229</v>
       </c>
       <c r="E50">
-        <v>0.1399229933254204</v>
+        <v>0.006009995835179499</v>
       </c>
       <c r="F50">
-        <v>0.5011172977452045</v>
+        <v>0.003358533933579494</v>
       </c>
       <c r="G50">
-        <v>-0.9490379367606653</v>
+        <v>-0.002936483402559879</v>
       </c>
       <c r="H50">
-        <v>-0.1714657384491677</v>
+        <v>-0.0011419457851891</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.2549017755618515</v>
+        <v>-0.608793327960562</v>
       </c>
       <c r="C51">
-        <v>0.9900322089960333</v>
+        <v>0.8830626933905356</v>
       </c>
       <c r="D51">
-        <v>0.5791329644952184</v>
+        <v>0.6884642005828864</v>
       </c>
       <c r="E51">
-        <v>0.245467483222512</v>
+        <v>0.3554431520534427</v>
       </c>
       <c r="F51">
-        <v>0.09680028879273742</v>
+        <v>0.2694507184700727</v>
       </c>
       <c r="G51">
-        <v>-0.9020409988862633</v>
+        <v>-0.3190585988431967</v>
       </c>
       <c r="H51">
-        <v>-0.2067132333316345</v>
+        <v>-0.2385401523315514</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.004397721300600536</v>
+        <v>-0.719485732148767</v>
       </c>
       <c r="C52">
-        <v>0.007005379837094326</v>
+        <v>1.057367919688435</v>
       </c>
       <c r="D52">
-        <v>0.005934806843479543</v>
+        <v>0.608743026057314</v>
       </c>
       <c r="E52">
-        <v>0.004642350117248102</v>
+        <v>0.4889881520946214</v>
       </c>
       <c r="F52">
-        <v>0.00478972776371799</v>
+        <v>0.1536694208012577</v>
       </c>
       <c r="G52">
-        <v>-0.001223123111720437</v>
+        <v>-0.414648971967926</v>
       </c>
       <c r="H52">
-        <v>-0.001508489883876924</v>
+        <v>-0.3155532861731213</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.1891264136222581</v>
+        <v>-0.2536870250190142</v>
       </c>
       <c r="C53">
-        <v>0.2519530286797748</v>
+        <v>0.330696283843098</v>
       </c>
       <c r="D53">
-        <v>0.3368140113165934</v>
+        <v>0.3267626470984935</v>
       </c>
       <c r="E53">
-        <v>0.1865196002846519</v>
+        <v>0.1851964713670907</v>
       </c>
       <c r="F53">
-        <v>0.1057084636657338</v>
+        <v>0.2260960259930398</v>
       </c>
       <c r="G53">
-        <v>-0.08761698812610612</v>
+        <v>-0.1393930878699929</v>
       </c>
       <c r="H53">
-        <v>-0.1611042338277491</v>
+        <v>-0.05367311601139071</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.307143448603042</v>
+        <v>-0.3910413872286191</v>
       </c>
       <c r="C54">
-        <v>0.7029143357680481</v>
+        <v>0.5571144041096835</v>
       </c>
       <c r="D54">
-        <v>0.4704175458773815</v>
+        <v>0.5480264341270019</v>
       </c>
       <c r="E54">
-        <v>0.2691661270794076</v>
+        <v>0.2677534563811392</v>
       </c>
       <c r="F54">
-        <v>0.09449977247224196</v>
+        <v>0.2451989844772949</v>
       </c>
       <c r="G54">
-        <v>-0.3118093862172983</v>
+        <v>-0.2422499776572573</v>
       </c>
       <c r="H54">
-        <v>-0.150847017852218</v>
+        <v>-0.1820557393434766</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.4267354984275857</v>
+        <v>-0.2276937737993633</v>
       </c>
       <c r="C55">
-        <v>1.059678166484129</v>
+        <v>0.2605909608547536</v>
       </c>
       <c r="D55">
-        <v>0.7709961795150616</v>
+        <v>0.3383857071570227</v>
       </c>
       <c r="E55">
-        <v>0.2641036478471563</v>
+        <v>0.2398212179304134</v>
       </c>
       <c r="F55">
-        <v>0.138087950164151</v>
+        <v>0.1510062084366527</v>
       </c>
       <c r="G55">
-        <v>-0.7543671466816522</v>
+        <v>-0.1301952415994502</v>
       </c>
       <c r="H55">
-        <v>-0.2642570177989209</v>
+        <v>-0.1064995951108872</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.2183959718446255</v>
+        <v>-0.6185765094726041</v>
       </c>
       <c r="C56">
-        <v>0.6444313916369193</v>
+        <v>0.856680258130546</v>
       </c>
       <c r="D56">
-        <v>0.688977874195647</v>
+        <v>0.7720382036151661</v>
       </c>
       <c r="E56">
-        <v>0.3020869335359586</v>
+        <v>0.3237180207735094</v>
       </c>
       <c r="F56">
-        <v>0.159506497396571</v>
+        <v>0.2831317391548995</v>
       </c>
       <c r="G56">
-        <v>-0.6728153324463275</v>
+        <v>-0.3513551866744877</v>
       </c>
       <c r="H56">
-        <v>-0.2310955904176445</v>
+        <v>-0.3845872851171721</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.003975517979571645</v>
+        <v>-0.2245993778182206</v>
       </c>
       <c r="C57">
-        <v>0.006912896485125228</v>
+        <v>0.3032415896806643</v>
       </c>
       <c r="D57">
-        <v>0.006612968203849508</v>
+        <v>0.306374288423862</v>
       </c>
       <c r="E57">
-        <v>0.003586850096064041</v>
+        <v>0.2491665349860974</v>
       </c>
       <c r="F57">
-        <v>0.003805111825539296</v>
+        <v>0.1131872489156016</v>
       </c>
       <c r="G57">
-        <v>-0.001221826665451297</v>
+        <v>-0.1373587801591656</v>
       </c>
       <c r="H57">
-        <v>-0.0008772310789189763</v>
+        <v>-0.1207147690186316</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.2969969771207178</v>
+        <v>-0.5864054025266767</v>
       </c>
       <c r="C58">
-        <v>0.5650189605195787</v>
+        <v>0.75816595024325</v>
       </c>
       <c r="D58">
-        <v>0.4865868878742484</v>
+        <v>0.7806995679851572</v>
       </c>
       <c r="E58">
-        <v>0.3104301465482919</v>
+        <v>0.3591241743311739</v>
       </c>
       <c r="F58">
-        <v>0.1588601556276631</v>
+        <v>0.2736602839859091</v>
       </c>
       <c r="G58">
-        <v>-0.3254800905014573</v>
+        <v>-0.375913847616231</v>
       </c>
       <c r="H58">
-        <v>-0.2028469054747126</v>
+        <v>-0.3489725292203482</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.3377929977702231</v>
+        <v>-0.005106253132039367</v>
       </c>
       <c r="C59">
-        <v>0.586681437395748</v>
+        <v>0.006776576761371614</v>
       </c>
       <c r="D59">
-        <v>0.5395332459827027</v>
+        <v>0.007605751824875679</v>
       </c>
       <c r="E59">
-        <v>0.3425370010564624</v>
+        <v>0.005410712129979093</v>
       </c>
       <c r="F59">
-        <v>0.1537169885687491</v>
+        <v>0.004340307933031169</v>
       </c>
       <c r="G59">
-        <v>-0.2675087375463283</v>
+        <v>-0.002926492139198062</v>
       </c>
       <c r="H59">
-        <v>-0.1539644992690521</v>
+        <v>-0.001014311511066644</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.04607733118070984</v>
+        <v>-0.4843432087288915</v>
       </c>
       <c r="C60">
-        <v>0.07619228808877927</v>
+        <v>0.7024212753749912</v>
       </c>
       <c r="D60">
-        <v>0.05159143576943055</v>
+        <v>0.6738387619402399</v>
       </c>
       <c r="E60">
-        <v>0.03701666873703317</v>
+        <v>0.2782533743866497</v>
       </c>
       <c r="F60">
-        <v>0.03820069946752448</v>
+        <v>0.3387795815623015</v>
       </c>
       <c r="G60">
-        <v>-0.01133989187347661</v>
+        <v>-0.3567473528301623</v>
       </c>
       <c r="H60">
-        <v>-0.02504485611729818</v>
+        <v>-0.2652718246988827</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.3357972846546593</v>
+        <v>-0.5718111826158639</v>
       </c>
       <c r="C61">
-        <v>0.8470710349310797</v>
+        <v>0.9191045503891624</v>
       </c>
       <c r="D61">
-        <v>0.5444733841230067</v>
+        <v>0.5493965769399598</v>
       </c>
       <c r="E61">
-        <v>0.2768379195404068</v>
+        <v>0.3675104797894038</v>
       </c>
       <c r="F61">
-        <v>-0.01304263643182868</v>
+        <v>0.274896763289266</v>
       </c>
       <c r="G61">
-        <v>-0.4384861430169075</v>
+        <v>-0.446847881654349</v>
       </c>
       <c r="H61">
-        <v>-0.1737134178768921</v>
+        <v>-0.2493713194651491</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.003486573615157882</v>
+        <v>-0.4440599083892927</v>
       </c>
       <c r="C62">
-        <v>0.006601688407954094</v>
+        <v>0.6410077931494836</v>
       </c>
       <c r="D62">
-        <v>0.005309415267870422</v>
+        <v>0.5335173146169638</v>
       </c>
       <c r="E62">
-        <v>0.00398769676736929</v>
+        <v>0.2893751248050049</v>
       </c>
       <c r="F62">
-        <v>0.004168257804313742</v>
+        <v>0.2024572719349501</v>
       </c>
       <c r="G62">
-        <v>-0.001219714199081023</v>
+        <v>-0.2670791739040921</v>
       </c>
       <c r="H62">
-        <v>-0.0009505912981760753</v>
+        <v>-0.2820862527004725</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.2518622043033834</v>
+        <v>-0.5410628631583035</v>
       </c>
       <c r="C63">
-        <v>0.6669886654147481</v>
+        <v>0.8632459769135635</v>
       </c>
       <c r="D63">
-        <v>0.5210294940198429</v>
+        <v>0.8234371779576249</v>
       </c>
       <c r="E63">
-        <v>0.1941309272714525</v>
+        <v>0.205001599151208</v>
       </c>
       <c r="F63">
-        <v>0.2599748621451158</v>
+        <v>0.2433580757109765</v>
       </c>
       <c r="G63">
-        <v>-0.463017561200455</v>
+        <v>-0.3713354447862574</v>
       </c>
       <c r="H63">
-        <v>-0.2365796722608997</v>
+        <v>-0.381103794734065</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.2426212662411051</v>
+        <v>-0.005534073694176526</v>
       </c>
       <c r="C64">
-        <v>0.9149499363360629</v>
+        <v>0.007847421125592141</v>
       </c>
       <c r="D64">
-        <v>0.5602151471664367</v>
+        <v>0.00732526020321759</v>
       </c>
       <c r="E64">
-        <v>0.3042058114395422</v>
+        <v>0.005772988726649711</v>
       </c>
       <c r="F64">
-        <v>0.01414696634760159</v>
+        <v>0.004224359424416689</v>
       </c>
       <c r="G64">
-        <v>-0.6776781516737105</v>
+        <v>-0.002939267304924727</v>
       </c>
       <c r="H64">
-        <v>-0.195946434578381</v>
+        <v>-7.580803908473292E-05</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.3670786333385778</v>
+        <v>-0.5194565289031476</v>
       </c>
       <c r="C65">
-        <v>0.7807120528922766</v>
+        <v>0.9094456131548853</v>
       </c>
       <c r="D65">
-        <v>0.6770947086535143</v>
+        <v>0.5230660333747595</v>
       </c>
       <c r="E65">
-        <v>0.2093887920760208</v>
+        <v>0.3054292423764185</v>
       </c>
       <c r="F65">
-        <v>0.135283332011815</v>
+        <v>0.2388392469677567</v>
       </c>
       <c r="G65">
-        <v>-0.4448753364653019</v>
+        <v>-0.3612829918988634</v>
       </c>
       <c r="H65">
-        <v>-0.3371946465319849</v>
+        <v>-0.1603274942954142</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.2839873406890136</v>
+        <v>-0.04204109650486045</v>
       </c>
       <c r="C66">
-        <v>0.6853466764425877</v>
+        <v>0.0637521711201811</v>
       </c>
       <c r="D66">
-        <v>0.4809019609339377</v>
+        <v>0.05994536761249339</v>
       </c>
       <c r="E66">
-        <v>0.2298660595301802</v>
+        <v>0.04400075500418144</v>
       </c>
       <c r="F66">
-        <v>0.08604818850307243</v>
+        <v>0.03484950113052924</v>
       </c>
       <c r="G66">
-        <v>-0.3147462880257809</v>
+        <v>-0.02684975997056197</v>
       </c>
       <c r="H66">
-        <v>-0.132230690504841</v>
+        <v>-0.01118400025365318</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.470341798873307</v>
+        <v>-0.6042371044502256</v>
       </c>
       <c r="C67">
-        <v>0.884251017250579</v>
+        <v>0.8310234118834566</v>
       </c>
       <c r="D67">
-        <v>0.9944761129811212</v>
+        <v>0.7642341551326378</v>
       </c>
       <c r="E67">
-        <v>0.2059395537937212</v>
+        <v>0.3459122088019748</v>
       </c>
       <c r="F67">
-        <v>0.1080499365156322</v>
+        <v>0.3740934940570549</v>
       </c>
       <c r="G67">
-        <v>-0.6116763846990009</v>
+        <v>-0.3410956976421449</v>
       </c>
       <c r="H67">
-        <v>-0.3575410788031897</v>
+        <v>-0.4315009400940411</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.1965673994088238</v>
+        <v>-0.508075306249499</v>
       </c>
       <c r="C68">
-        <v>0.3164691655681864</v>
+        <v>0.762649572640929</v>
       </c>
       <c r="D68">
-        <v>0.3051066157585827</v>
+        <v>0.5083609805827262</v>
       </c>
       <c r="E68">
-        <v>0.2014467893641084</v>
+        <v>0.2471463359721312</v>
       </c>
       <c r="F68">
-        <v>0.1196073794986352</v>
+        <v>0.4441357019566991</v>
       </c>
       <c r="G68">
-        <v>-0.09451028560632803</v>
+        <v>-0.4223624169682734</v>
       </c>
       <c r="H68">
-        <v>-0.1152519806780806</v>
+        <v>-0.09029510293189966</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.1923710346204946</v>
+        <v>-0.04903648399395935</v>
       </c>
       <c r="C69">
-        <v>0.9183961056888013</v>
+        <v>0.0707456919407273</v>
       </c>
       <c r="D69">
-        <v>0.5686843571612755</v>
+        <v>0.06531390433887473</v>
       </c>
       <c r="E69">
-        <v>0.1936963636850039</v>
+        <v>0.04779750715902881</v>
       </c>
       <c r="F69">
-        <v>0.03905166083810398</v>
+        <v>0.03378472688660112</v>
       </c>
       <c r="G69">
-        <v>-0.8196465748102382</v>
+        <v>-0.02641858825450403</v>
       </c>
       <c r="H69">
-        <v>-0.2400162985977162</v>
+        <v>-0.01056169117927757</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.2882246132948479</v>
+        <v>-0.6094934548374811</v>
       </c>
       <c r="C70">
-        <v>0.5313668587373528</v>
+        <v>1.03272368336069</v>
       </c>
       <c r="D70">
-        <v>0.5427907635283744</v>
+        <v>0.5811721953017734</v>
       </c>
       <c r="E70">
-        <v>0.280971251373521</v>
+        <v>0.3754350308365206</v>
       </c>
       <c r="F70">
-        <v>0.2637509177322418</v>
+        <v>0.2101441074721762</v>
       </c>
       <c r="G70">
-        <v>-0.3448271843787372</v>
+        <v>-0.3648815874746776</v>
       </c>
       <c r="H70">
-        <v>-0.2151542394917239</v>
+        <v>-0.2736422026278332</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.3178182132340823</v>
+        <v>-0.3821285162919354</v>
       </c>
       <c r="C71">
-        <v>0.545314801874295</v>
+        <v>0.5740219546850112</v>
       </c>
       <c r="D71">
-        <v>0.710992721011028</v>
+        <v>0.4336766005840224</v>
       </c>
       <c r="E71">
-        <v>0.1338983004585663</v>
+        <v>0.356363737843766</v>
       </c>
       <c r="F71">
-        <v>0.1847056000549239</v>
+        <v>0.2791457355631888</v>
       </c>
       <c r="G71">
-        <v>-0.3106991467845284</v>
+        <v>-0.2519809042247032</v>
       </c>
       <c r="H71">
-        <v>-0.2760963743343917</v>
+        <v>-0.132245837386305</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.4454510398134555</v>
+        <v>-0.00507824318803473</v>
       </c>
       <c r="C72">
-        <v>1.109141620536682</v>
+        <v>0.007150287433112046</v>
       </c>
       <c r="D72">
-        <v>0.9656651059733244</v>
+        <v>0.00689412903340197</v>
       </c>
       <c r="E72">
-        <v>0.2303810594748144</v>
+        <v>0.004777966589099127</v>
       </c>
       <c r="F72">
-        <v>0.1194836161361903</v>
+        <v>0.004902396910232911</v>
       </c>
       <c r="G72">
-        <v>-0.8414006604807625</v>
+        <v>-0.002929511722731023</v>
       </c>
       <c r="H72">
-        <v>-0.2137471306387431</v>
+        <v>-0.002570938410374227</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.3033328372087701</v>
+        <v>-0.2045104023843122</v>
       </c>
       <c r="C73">
-        <v>1.028142551653466</v>
+        <v>0.3274344776975349</v>
       </c>
       <c r="D73">
-        <v>0.6382807025758526</v>
+        <v>0.2714762063477926</v>
       </c>
       <c r="E73">
-        <v>0.2407130952358331</v>
+        <v>0.2099190756029345</v>
       </c>
       <c r="F73">
-        <v>0.06329719312864843</v>
+        <v>0.1337917032166339</v>
       </c>
       <c r="G73">
-        <v>-0.7850536028492175</v>
+        <v>-0.1448421052635389</v>
       </c>
       <c r="H73">
-        <v>-0.1367482172191377</v>
+        <v>-0.06244510989592284</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.4453704203181684</v>
+        <v>-0.6175117638615636</v>
       </c>
       <c r="C74">
-        <v>0.7227370908866271</v>
+        <v>0.9795437919696045</v>
       </c>
       <c r="D74">
-        <v>0.9679624223560012</v>
+        <v>0.5392697354982942</v>
       </c>
       <c r="E74">
-        <v>0.1222908638170431</v>
+        <v>0.4647503825177097</v>
       </c>
       <c r="F74">
-        <v>0.2274682993163882</v>
+        <v>0.1786498950997934</v>
       </c>
       <c r="G74">
-        <v>-0.4962680531213747</v>
+        <v>-0.3581895380985371</v>
       </c>
       <c r="H74">
-        <v>-0.3413060042325027</v>
+        <v>-0.1326342699728837</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.3023855805907976</v>
+        <v>-0.209769138583331</v>
       </c>
       <c r="C75">
-        <v>0.7101460641739178</v>
+        <v>0.3111206566684208</v>
       </c>
       <c r="D75">
-        <v>0.8572692664864401</v>
+        <v>0.2897565207840568</v>
       </c>
       <c r="E75">
-        <v>0.3009353257188778</v>
+        <v>0.1562804215705029</v>
       </c>
       <c r="F75">
-        <v>0.5393766352533521</v>
+        <v>0.1725580061479543</v>
       </c>
       <c r="G75">
-        <v>-1.021435872276383</v>
+        <v>-0.1486998241569534</v>
       </c>
       <c r="H75">
-        <v>-0.1049101185893905</v>
+        <v>-0.09561607851366676</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.1965262479958985</v>
+        <v>-0.2429825543081567</v>
       </c>
       <c r="C76">
-        <v>0.3324612825810033</v>
+        <v>0.3055397113225404</v>
       </c>
       <c r="D76">
-        <v>0.3146970462245487</v>
+        <v>0.3514707597774893</v>
       </c>
       <c r="E76">
-        <v>0.153225781715208</v>
+        <v>0.1635170009626848</v>
       </c>
       <c r="F76">
-        <v>0.1836878714256207</v>
+        <v>0.2169957396777011</v>
       </c>
       <c r="G76">
-        <v>-0.1016779824415614</v>
+        <v>-0.1445138123828919</v>
       </c>
       <c r="H76">
-        <v>-0.07138995832209678</v>
+        <v>-0.01587360268841734</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.3749632128113669</v>
+        <v>-0.517242086521163</v>
       </c>
       <c r="C77">
-        <v>1.102916398541885</v>
+        <v>0.6060752292637589</v>
       </c>
       <c r="D77">
-        <v>0.9704647675075658</v>
+        <v>0.6717815603935244</v>
       </c>
       <c r="E77">
-        <v>0.0126024747761192</v>
+        <v>0.2235155397826827</v>
       </c>
       <c r="F77">
-        <v>0.3404681230011125</v>
+        <v>0.4289989876190334</v>
       </c>
       <c r="G77">
-        <v>-1.096984132561561</v>
+        <v>-0.3223455215168236</v>
       </c>
       <c r="H77">
-        <v>-0.0210267406391333</v>
+        <v>-0.1808348517313463</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.0441635063106701</v>
+        <v>-0.05533296901206453</v>
       </c>
       <c r="C78">
-        <v>0.06820696885132981</v>
+        <v>0.07509836901830211</v>
       </c>
       <c r="D78">
-        <v>0.06007993138762573</v>
+        <v>0.06825470927812684</v>
       </c>
       <c r="E78">
-        <v>0.04779859179714311</v>
+        <v>0.0489421811116932</v>
       </c>
       <c r="F78">
-        <v>0.02969768465463965</v>
+        <v>0.04230221470068382</v>
       </c>
       <c r="G78">
-        <v>-0.01164157174665621</v>
+        <v>-0.02609428916978282</v>
       </c>
       <c r="H78">
-        <v>-0.01060344026204871</v>
+        <v>-0.007257905177842853</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.3624972395928259</v>
+        <v>-0.5268581270673094</v>
       </c>
       <c r="C79">
-        <v>0.7031727920171394</v>
+        <v>0.7769861412874292</v>
       </c>
       <c r="D79">
-        <v>0.6047933082142325</v>
+        <v>0.5533459709797621</v>
       </c>
       <c r="E79">
-        <v>0.3063092078896318</v>
+        <v>0.3780194501752173</v>
       </c>
       <c r="F79">
-        <v>0.2134605955190468</v>
+        <v>0.4042669735775082</v>
       </c>
       <c r="G79">
-        <v>-0.4143489145538221</v>
+        <v>-0.3490104147451517</v>
       </c>
       <c r="H79">
-        <v>-0.2968335649881462</v>
+        <v>-0.2468683502159542</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.2977988514400214</v>
+        <v>-0.005500293742508094</v>
       </c>
       <c r="C80">
-        <v>0.6741187004730012</v>
+        <v>0.007390076895798464</v>
       </c>
       <c r="D80">
-        <v>0.7725456830671493</v>
+        <v>0.007749856964357544</v>
       </c>
       <c r="E80">
-        <v>0.242015303645787</v>
+        <v>0.005172121650036046</v>
       </c>
       <c r="F80">
-        <v>0.3531649520602638</v>
+        <v>0.004824710966290913</v>
       </c>
       <c r="G80">
-        <v>-0.7584088646470457</v>
+        <v>-0.002937598395989965</v>
       </c>
       <c r="H80">
-        <v>-0.07365493847236783</v>
+        <v>-0.0008174444574460865</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.4125219031900101</v>
+        <v>-0.433830597401405</v>
       </c>
       <c r="C81">
-        <v>1.093031322750575</v>
+        <v>0.5867854741795547</v>
       </c>
       <c r="D81">
-        <v>0.7805749569106307</v>
+        <v>0.5951579372320621</v>
       </c>
       <c r="E81">
-        <v>0.18264883426629</v>
+        <v>0.2681941440128201</v>
       </c>
       <c r="F81">
-        <v>0.1625179559320189</v>
+        <v>0.2380951681626758</v>
       </c>
       <c r="G81">
-        <v>-0.809803373031412</v>
+        <v>-0.2846493200244211</v>
       </c>
       <c r="H81">
-        <v>-0.2867125104458237</v>
+        <v>-0.2148331752796669</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.2228133719134575</v>
+        <v>-0.04969021924539321</v>
       </c>
       <c r="C82">
-        <v>0.3315511415507383</v>
+        <v>0.06517134140275496</v>
       </c>
       <c r="D82">
-        <v>0.3302844576194267</v>
+        <v>0.06841694299400179</v>
       </c>
       <c r="E82">
-        <v>0.1736738121481048</v>
+        <v>0.05457401146110066</v>
       </c>
       <c r="F82">
-        <v>0.1704049342492983</v>
+        <v>0.02804956434563532</v>
       </c>
       <c r="G82">
-        <v>-0.1063997384123996</v>
+        <v>-0.02575485827270979</v>
       </c>
       <c r="H82">
-        <v>-0.06965952110040084</v>
+        <v>-0.01859421182616404</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.3518857095768252</v>
+        <v>-0.4680658368558586</v>
       </c>
       <c r="C83">
-        <v>0.6137858391934463</v>
+        <v>0.6716947554331499</v>
       </c>
       <c r="D83">
-        <v>0.4930490713315212</v>
+        <v>0.492509427438733</v>
       </c>
       <c r="E83">
-        <v>0.3591725181294031</v>
+        <v>0.2847471225794062</v>
       </c>
       <c r="F83">
-        <v>0.2747463834483939</v>
+        <v>0.282937821621857</v>
       </c>
       <c r="G83">
-        <v>-0.2833973462078092</v>
+        <v>-0.2853033472253942</v>
       </c>
       <c r="H83">
-        <v>-0.07630073177417278</v>
+        <v>-0.2102354610386692</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.003848398389122024</v>
+        <v>-0.004803832582157459</v>
       </c>
       <c r="C84">
-        <v>0.006995731996950214</v>
+        <v>0.006932302308780313</v>
       </c>
       <c r="D84">
-        <v>0.005565536287981652</v>
+        <v>0.007412778491827149</v>
       </c>
       <c r="E84">
-        <v>0.004187464518154837</v>
+        <v>0.005259082354390358</v>
       </c>
       <c r="F84">
-        <v>0.003816839231087927</v>
+        <v>0.003501097663867194</v>
       </c>
       <c r="G84">
-        <v>-0.00122189621329947</v>
+        <v>-0.00293418163063861</v>
       </c>
       <c r="H84">
-        <v>-0.002032622258231659</v>
+        <v>-0.000699555308783588</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.4147826468198773</v>
+        <v>-0.4489541579901418</v>
       </c>
       <c r="C85">
-        <v>0.724980653999839</v>
+        <v>0.621294079018241</v>
       </c>
       <c r="D85">
-        <v>0.8149519774548418</v>
+        <v>0.6249392004678238</v>
       </c>
       <c r="E85">
-        <v>0.2374051031596075</v>
+        <v>0.2589890396640013</v>
       </c>
       <c r="F85">
-        <v>0.2446344364000324</v>
+        <v>0.2477214369246167</v>
       </c>
       <c r="G85">
-        <v>-0.4955876518476399</v>
+        <v>-0.295428699576967</v>
       </c>
       <c r="H85">
-        <v>-0.1813269542230133</v>
+        <v>-0.2170584993067695</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.3285243971652224</v>
+        <v>-0.5129100378277422</v>
       </c>
       <c r="C86">
-        <v>0.8292410411565756</v>
+        <v>0.7853962649870406</v>
       </c>
       <c r="D86">
-        <v>0.7776238278301001</v>
+        <v>0.6636270617906802</v>
       </c>
       <c r="E86">
-        <v>0.2594823168483325</v>
+        <v>0.3037748012027088</v>
       </c>
       <c r="F86">
-        <v>0.01267036269402548</v>
+        <v>0.2583577616207969</v>
       </c>
       <c r="G86">
-        <v>-0.6847320189072039</v>
+        <v>-0.3384465488311446</v>
       </c>
       <c r="H86">
-        <v>-0.4010302247312931</v>
+        <v>-0.3619653336382278</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.4348472660984095</v>
+        <v>-0.005076687141845724</v>
       </c>
       <c r="C87">
-        <v>0.7869790062569525</v>
+        <v>0.006409159361194531</v>
       </c>
       <c r="D87">
-        <v>0.8001387883151114</v>
+        <v>0.007182417867262004</v>
       </c>
       <c r="E87">
-        <v>0.3639970573810287</v>
+        <v>0.005416314340424861</v>
       </c>
       <c r="F87">
-        <v>0.3779641410200215</v>
+        <v>0.005300416299751523</v>
       </c>
       <c r="G87">
-        <v>-0.7013345036925148</v>
+        <v>-0.002933969200129494</v>
       </c>
       <c r="H87">
-        <v>-0.4453218635570625</v>
+        <v>-0.001365568008125634</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.2851190459107449</v>
+        <v>-0.4433378927969269</v>
       </c>
       <c r="C88">
-        <v>0.6057569533945801</v>
+        <v>0.6613462640627025</v>
       </c>
       <c r="D88">
-        <v>0.5289176712057384</v>
+        <v>0.6937977760571994</v>
       </c>
       <c r="E88">
-        <v>0.2018750626373101</v>
+        <v>0.192514558375773</v>
       </c>
       <c r="F88">
-        <v>0.2922120685898472</v>
+        <v>0.1073602575194261</v>
       </c>
       <c r="G88">
-        <v>-0.3885120798027262</v>
+        <v>-0.3316015185897886</v>
       </c>
       <c r="H88">
-        <v>-0.1200058398634325</v>
+        <v>-0.2030308042612442</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.3521172599566127</v>
+        <v>-0.4472912804418154</v>
       </c>
       <c r="C89">
-        <v>0.9694078575395427</v>
+        <v>0.524259722643415</v>
       </c>
       <c r="D89">
-        <v>0.7066588746556529</v>
+        <v>0.6895411763787406</v>
       </c>
       <c r="E89">
-        <v>0.1749574016193466</v>
+        <v>0.2282767674259756</v>
       </c>
       <c r="F89">
-        <v>0.5178060356545499</v>
+        <v>0.2484146301955703</v>
       </c>
       <c r="G89">
-        <v>-0.9356658802843973</v>
+        <v>-0.2420669100238793</v>
       </c>
       <c r="H89">
-        <v>-0.131131004491041</v>
+        <v>-0.1728093245720232</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.005212438263079711</v>
+        <v>-0.2532236584454091</v>
       </c>
       <c r="C90">
-        <v>0.007409871453826897</v>
+        <v>0.3586036077701296</v>
       </c>
       <c r="D90">
-        <v>0.007031606363039773</v>
+        <v>0.2821883986630567</v>
       </c>
       <c r="E90">
-        <v>0.005500652170570701</v>
+        <v>0.1937467734713864</v>
       </c>
       <c r="F90">
-        <v>0.004257706646665509</v>
+        <v>0.216493100555275</v>
       </c>
       <c r="G90">
-        <v>-0.001218077956445428</v>
+        <v>-0.1336849763574838</v>
       </c>
       <c r="H90">
-        <v>-0.0009517718786456169</v>
+        <v>-0.08680551984037523</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.1830766955003215</v>
+        <v>-0.2149439107717213</v>
       </c>
       <c r="C91">
-        <v>0.318561958501041</v>
+        <v>0.2986440139736699</v>
       </c>
       <c r="D91">
-        <v>0.2489833034277826</v>
+        <v>0.2958572892797918</v>
       </c>
       <c r="E91">
-        <v>0.1809339328857959</v>
+        <v>0.2023573584801232</v>
       </c>
       <c r="F91">
-        <v>0.1841229452586876</v>
+        <v>0.1626630118445641</v>
       </c>
       <c r="G91">
-        <v>-0.08895054043274193</v>
+        <v>-0.15301656568981</v>
       </c>
       <c r="H91">
-        <v>-0.1125654792673077</v>
+        <v>-0.1027749243260539</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.3525260548741164</v>
+        <v>-0.5939657375299334</v>
       </c>
       <c r="C92">
-        <v>0.553680677405975</v>
+        <v>0.6025586030084983</v>
       </c>
       <c r="D92">
-        <v>0.5619821938158169</v>
+        <v>0.752610101122235</v>
       </c>
       <c r="E92">
-        <v>0.3646013020537387</v>
+        <v>0.3584295799762628</v>
       </c>
       <c r="F92">
-        <v>0.1692733183935326</v>
+        <v>0.5043822643775295</v>
       </c>
       <c r="G92">
-        <v>-0.2539945789504536</v>
+        <v>-0.3466439593864754</v>
       </c>
       <c r="H92">
-        <v>0.0181645751484316</v>
+        <v>-0.1827988570597121</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.3457848060035032</v>
+        <v>-0.004168505080600728</v>
       </c>
       <c r="C93">
-        <v>0.8896347997475846</v>
+        <v>0.006085209467605537</v>
       </c>
       <c r="D93">
-        <v>0.7406058544658137</v>
+        <v>0.00649499338770488</v>
       </c>
       <c r="E93">
-        <v>0.2740627654920064</v>
+        <v>0.004825631729850104</v>
       </c>
       <c r="F93">
-        <v>0.2348090832745695</v>
+        <v>0.00434816847987066</v>
       </c>
       <c r="G93">
-        <v>-0.7527572713385403</v>
+        <v>-0.002931702118487156</v>
       </c>
       <c r="H93">
-        <v>-0.1067074277524137</v>
+        <v>-0.001425152485011935</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.2343605656818594</v>
+        <v>-0.2460084656045757</v>
       </c>
       <c r="C94">
-        <v>0.907865675108121</v>
+        <v>0.3333272831123258</v>
       </c>
       <c r="D94">
-        <v>0.7817617578737287</v>
+        <v>0.3091583844620211</v>
       </c>
       <c r="E94">
-        <v>0.1785561868849303</v>
+        <v>0.2076385566843326</v>
       </c>
       <c r="F94">
-        <v>0.2626228490009765</v>
+        <v>0.1837817250794991</v>
       </c>
       <c r="G94">
-        <v>-1.008540982758724</v>
+        <v>-0.1329462580486591</v>
       </c>
       <c r="H94">
-        <v>-0.277930259824044</v>
+        <v>-0.04661097319167154</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.004027503856475257</v>
+        <v>-0.268719869239253</v>
       </c>
       <c r="C95">
-        <v>0.006613890312102256</v>
+        <v>0.32931816795712</v>
       </c>
       <c r="D95">
-        <v>0.006386959714626973</v>
+        <v>0.3140810911315687</v>
       </c>
       <c r="E95">
-        <v>0.004309267024044997</v>
+        <v>0.2154966958026586</v>
       </c>
       <c r="F95">
-        <v>0.004046037031009771</v>
+        <v>0.246011822407938</v>
       </c>
       <c r="G95">
-        <v>-0.001224164370446565</v>
+        <v>-0.1611504845248575</v>
       </c>
       <c r="H95">
-        <v>-0.001102315406420542</v>
+        <v>-0.007274165589290037</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.003894239040362295</v>
+        <v>-0.3973229083422315</v>
       </c>
       <c r="C96">
-        <v>0.00728846836859368</v>
+        <v>0.5831286030669095</v>
       </c>
       <c r="D96">
-        <v>0.005282717596013645</v>
+        <v>0.44579185513588</v>
       </c>
       <c r="E96">
-        <v>0.0044222514185719</v>
+        <v>0.3565908242717696</v>
       </c>
       <c r="F96">
-        <v>0.003791588933593016</v>
+        <v>0.2881055149037291</v>
       </c>
       <c r="G96">
-        <v>-0.001221874176540086</v>
+        <v>-0.3383329609911878</v>
       </c>
       <c r="H96">
-        <v>-0.001585127716313253</v>
+        <v>-0.2938235985420021</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.2732111112265457</v>
+        <v>-0.2203001666559736</v>
       </c>
       <c r="C97">
-        <v>1.020322105913708</v>
+        <v>0.3209119201839132</v>
       </c>
       <c r="D97">
-        <v>0.565458878998831</v>
+        <v>0.2765969008191595</v>
       </c>
       <c r="E97">
-        <v>0.1422726566495029</v>
+        <v>0.2063226910262364</v>
       </c>
       <c r="F97">
-        <v>0.1482146886303367</v>
+        <v>0.1788298612801386</v>
       </c>
       <c r="G97">
-        <v>-0.7838905682978053</v>
+        <v>-0.1475983326872814</v>
       </c>
       <c r="H97">
-        <v>-0.08723639832348926</v>
+        <v>-0.0882201309648134</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.3895548291889214</v>
+        <v>-0.5393104242429207</v>
       </c>
       <c r="C98">
-        <v>0.837216871654853</v>
+        <v>0.8989838131158544</v>
       </c>
       <c r="D98">
-        <v>0.8887935686065904</v>
+        <v>0.6428350720600868</v>
       </c>
       <c r="E98">
-        <v>0.3303040454542556</v>
+        <v>0.3395086057757216</v>
       </c>
       <c r="F98">
-        <v>0.2120990236214457</v>
+        <v>0.1696245394454007</v>
       </c>
       <c r="G98">
-        <v>-0.7004528922226787</v>
+        <v>-0.365449032529803</v>
       </c>
       <c r="H98">
-        <v>-0.5109292877490378</v>
+        <v>-0.238643550015996</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.004295817292011487</v>
+        <v>-0.05974079845620442</v>
       </c>
       <c r="C99">
-        <v>0.006145595628596606</v>
+        <v>0.0673373418164447</v>
       </c>
       <c r="D99">
-        <v>0.007071350207905839</v>
+        <v>0.07106042106245038</v>
       </c>
       <c r="E99">
-        <v>0.004836353766348947</v>
+        <v>0.06060122463914634</v>
       </c>
       <c r="F99">
-        <v>0.003751570091539697</v>
+        <v>0.04791852378588848</v>
       </c>
       <c r="G99">
-        <v>-0.001221282389080385</v>
+        <v>-0.02577938802414244</v>
       </c>
       <c r="H99">
-        <v>-0.001696545906027813</v>
+        <v>-0.00965728270502539</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.2027888841363202</v>
+        <v>-0.4239532924037462</v>
       </c>
       <c r="C100">
-        <v>0.9370036104308145</v>
+        <v>0.5362951306933683</v>
       </c>
       <c r="D100">
-        <v>0.7390093442468689</v>
+        <v>0.6612510152433998</v>
       </c>
       <c r="E100">
-        <v>0.1331475142890307</v>
+        <v>0.1632443203195587</v>
       </c>
       <c r="F100">
-        <v>0.2125023080644046</v>
+        <v>0.3254476808289111</v>
       </c>
       <c r="G100">
-        <v>-0.9894390200107595</v>
+        <v>-0.3311684662085321</v>
       </c>
       <c r="H100">
-        <v>-0.2973103696499435</v>
+        <v>-0.1467207741940832</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.4162474771359906</v>
+        <v>-0.4282018496341981</v>
       </c>
       <c r="C101">
-        <v>0.7063861214403915</v>
+        <v>0.6240959712652607</v>
       </c>
       <c r="D101">
-        <v>0.6855065322949244</v>
+        <v>0.5797217980094024</v>
       </c>
       <c r="E101">
-        <v>0.2296848820897961</v>
+        <v>0.230666352973265</v>
       </c>
       <c r="F101">
-        <v>0.1897634195666757</v>
+        <v>0.2362117382516959</v>
       </c>
       <c r="G101">
-        <v>-0.2972110414227408</v>
+        <v>-0.2643962230721056</v>
       </c>
       <c r="H101">
-        <v>-0.2668095998168025</v>
+        <v>-0.2612022113740218</v>
       </c>
     </row>
   </sheetData>
